--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary van Valkenburg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eykin\Desktop\Eddie Documentsls\projects\lookups-budget-ekinnard23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA39AA60-3CE0-4DE1-B069-6B9C724C3BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="90" windowWidth="21877" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metro_budget" sheetId="1" r:id="rId1"/>
     <sheet name="data_dictionary" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">metro_budget!$A$1:$P$1</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
   <si>
     <t>Department</t>
   </si>
@@ -314,7 +317,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,11 +457,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -866,7 +871,17 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -877,6 +892,45 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8C13E4EB-9A20-4320-8251-E24E5523D0D8}" name="Table2" displayName="Table2" ref="A1:P52" totalsRowShown="0">
+  <autoFilter ref="A1:P52" xr:uid="{8C13E4EB-9A20-4320-8251-E24E5523D0D8}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{41C990FD-9649-4D3E-BD9F-5D33110ACB67}" name="Department"/>
+    <tableColumn id="2" xr3:uid="{7C29889D-356A-42EE-9213-FFD75A30D73B}" name="FY17_Budget"/>
+    <tableColumn id="3" xr3:uid="{E4F900E5-BEDA-4538-93A1-4A2C47035F01}" name="FY17_Actual"/>
+    <tableColumn id="4" xr3:uid="{B0AE7AB5-72EF-49F5-8F0D-5CF61374B3CB}" name="FY17_diff">
+      <calculatedColumnFormula>C2-B2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B1BA2D9D-B50B-40B0-9579-2BABF54D42D4}" name="FY17_diff_pct" dataDxfId="2">
+      <calculatedColumnFormula>D2/B2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{9589AC08-3159-4C8E-87D3-0BD261E13F91}" name="FY17_rank"/>
+    <tableColumn id="7" xr3:uid="{DEC3FD43-2C01-424E-B21D-98B375E66037}" name="FY18_Budget"/>
+    <tableColumn id="8" xr3:uid="{D8435CA7-60C9-4B8E-8868-E747C9AA76C8}" name="FY18_Actual"/>
+    <tableColumn id="9" xr3:uid="{BAE7FAA3-7055-404E-B031-1B986730320C}" name="FY18_diff">
+      <calculatedColumnFormula>H2-G2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{07CF8D73-8EF7-42AD-8718-15C2B5EC1B31}" name="FY18_diff_pct" dataDxfId="1">
+      <calculatedColumnFormula>I2/G2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{D99BBE39-751A-429C-BFBE-9A332BF2CF2C}" name="FY18_rank"/>
+    <tableColumn id="12" xr3:uid="{0DB0E360-1EF7-44C3-9337-56F21C2E7AF8}" name="FY19_Budget"/>
+    <tableColumn id="13" xr3:uid="{9D2EA2AA-C37A-4253-AB81-C62F211C1FF7}" name="FY19_Actual"/>
+    <tableColumn id="14" xr3:uid="{FE085C72-2286-4F71-BC57-893088DDF9B9}" name="FY19_diff">
+      <calculatedColumnFormula>M2-L2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{CE029448-493E-4A99-AEC2-D866C8603365}" name="FY19_diff_pct" dataDxfId="0">
+      <calculatedColumnFormula>N2/L2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{12428FCB-996C-49CE-ABE0-E7D4A23A6C3D}" name="FY19_rank">
+      <calculatedColumnFormula>MATCH(O2,O$2:O$52,0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1176,27 +1230,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P107"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
-    <col min="14" max="15" width="17.85546875" customWidth="1"/>
-    <col min="16" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1"/>
+    <col min="8" max="8" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="15.81640625" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" customWidth="1"/>
+    <col min="14" max="15" width="17.81640625" customWidth="1"/>
+    <col min="16" max="17" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1246,1338 +1300,2919 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="e">
+        <f>D2/B2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>H2-G2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="e">
+        <f>I2/G2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L2">
+        <v>375000</v>
+      </c>
+      <c r="M2">
+        <v>63771.91</v>
+      </c>
+      <c r="N2">
+        <f>M2-L2</f>
+        <v>-311228.08999999997</v>
+      </c>
+      <c r="O2" s="5">
+        <f>N2/L2</f>
+        <v>-0.82994157333333329</v>
+      </c>
+      <c r="P2">
+        <f>MATCH(O2,O$2:O$52,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>1552100</v>
+      </c>
+      <c r="C3">
+        <v>1315623.30999999</v>
+      </c>
+      <c r="D3">
+        <f>C3-B3</f>
+        <v>-236476.69000000996</v>
+      </c>
+      <c r="E3" s="5">
+        <f>D3/B3</f>
+        <v>-0.15235918433091292</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1590700</v>
+      </c>
+      <c r="H3">
+        <v>1383905.98999999</v>
+      </c>
+      <c r="I3">
+        <f>H3-G3</f>
+        <v>-206794.01000001002</v>
+      </c>
+      <c r="J3" s="5">
+        <f>I3/G3</f>
+        <v>-0.13000189224870184</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>1579300</v>
+      </c>
+      <c r="M3">
+        <v>1337735.3199999901</v>
+      </c>
+      <c r="N3">
+        <f>M3-L3</f>
+        <v>-241564.68000000995</v>
+      </c>
+      <c r="O3" s="5">
+        <f>N3/L3</f>
+        <v>-0.15295680364719175</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P52" si="0">MATCH(O3,O$2:O$52,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>2764700</v>
+      </c>
+      <c r="C4">
+        <v>2615303.8999999901</v>
+      </c>
+      <c r="D4">
+        <f>C4-B4</f>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="E4" s="5">
+        <f>D4/B4</f>
+        <v>-5.4037002206391245E-2</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>2861000</v>
+      </c>
+      <c r="H4">
+        <v>2671745.94</v>
+      </c>
+      <c r="I4">
+        <f>H4-G4</f>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="J4" s="5">
+        <f>I4/G4</f>
+        <v>-6.6149619014330668E-2</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>2910600</v>
+      </c>
+      <c r="M4">
+        <v>2535637.09</v>
+      </c>
+      <c r="N4">
+        <f>M4-L4</f>
+        <v>-374962.91000000015</v>
+      </c>
+      <c r="O4" s="5">
+        <f>N4/L4</f>
+        <v>-0.12882667147667154</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>3329000</v>
+      </c>
+      <c r="C5">
+        <v>2946071.21</v>
+      </c>
+      <c r="D5">
+        <f>C5-B5</f>
+        <v>-382928.79000000004</v>
+      </c>
+      <c r="E5" s="5">
+        <f>D5/B5</f>
+        <v>-0.11502817362571344</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>3390900</v>
+      </c>
+      <c r="H5">
+        <v>3051483.41</v>
+      </c>
+      <c r="I5">
+        <f>H5-G5</f>
+        <v>-339416.58999999985</v>
+      </c>
+      <c r="J5" s="5">
+        <f>I5/G5</f>
+        <v>-0.10009631366303927</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>3345200</v>
+      </c>
+      <c r="M5">
+        <v>2946440.08</v>
+      </c>
+      <c r="N5">
+        <f>M5-L5</f>
+        <v>-398759.91999999993</v>
+      </c>
+      <c r="O5" s="5">
+        <f>N5/L5</f>
+        <v>-0.11920361114432618</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>798200</v>
+      </c>
+      <c r="C6">
+        <v>735423.27999999898</v>
+      </c>
+      <c r="D6">
+        <f>C6-B6</f>
+        <v>-62776.72000000102</v>
+      </c>
+      <c r="E6" s="5">
+        <f>D6/B6</f>
+        <v>-7.8647857679780775E-2</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>898700</v>
+      </c>
+      <c r="H6">
+        <v>740966.94999999902</v>
+      </c>
+      <c r="I6">
+        <f>H6-G6</f>
+        <v>-157733.05000000098</v>
+      </c>
+      <c r="J6" s="5">
+        <f>I6/G6</f>
+        <v>-0.17551246244575608</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>878300</v>
+      </c>
+      <c r="M6">
+        <v>777215.28999999899</v>
+      </c>
+      <c r="N6">
+        <f>M6-L6</f>
+        <v>-101084.71000000101</v>
+      </c>
+      <c r="O6" s="5">
+        <f>N6/L6</f>
+        <v>-0.11509132414892521</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>2451000</v>
+      </c>
+      <c r="C7">
+        <v>2254684.7999999998</v>
+      </c>
+      <c r="D7">
+        <f>C7-B7</f>
+        <v>-196315.20000000019</v>
+      </c>
+      <c r="E7" s="5">
+        <f>D7/B7</f>
+        <v>-8.009596083231342E-2</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>2440700</v>
+      </c>
+      <c r="H7">
+        <v>2204672.88</v>
+      </c>
+      <c r="I7">
+        <f>H7-G7</f>
+        <v>-236027.12000000011</v>
+      </c>
+      <c r="J7" s="5">
+        <f>I7/G7</f>
+        <v>-9.6704683082722218E-2</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>2321600</v>
+      </c>
+      <c r="M7">
+        <v>2056835.26</v>
+      </c>
+      <c r="N7">
+        <f>M7-L7</f>
+        <v>-264764.74</v>
+      </c>
+      <c r="O7" s="5">
+        <f>N7/L7</f>
+        <v>-0.11404408166781529</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>1382900</v>
+      </c>
+      <c r="C8">
+        <v>1250442.02</v>
+      </c>
+      <c r="D8">
+        <f>C8-B8</f>
+        <v>-132457.97999999998</v>
+      </c>
+      <c r="E8" s="5">
+        <f>D8/B8</f>
+        <v>-9.5782760864849215E-2</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>1545700</v>
+      </c>
+      <c r="H8">
+        <v>1281335.23</v>
+      </c>
+      <c r="I8">
+        <f>H8-G8</f>
+        <v>-264364.77</v>
+      </c>
+      <c r="J8" s="5">
+        <f>I8/G8</f>
+        <v>-0.17103239309050916</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1525900</v>
+      </c>
+      <c r="M8">
+        <v>1393285.06</v>
+      </c>
+      <c r="N8">
+        <f>M8-L8</f>
+        <v>-132614.93999999994</v>
+      </c>
+      <c r="O8" s="5">
+        <f>N8/L8</f>
+        <v>-8.6909325643882263E-2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>2087800</v>
+      </c>
+      <c r="C9">
+        <v>2005447.73999999</v>
+      </c>
+      <c r="D9">
+        <f>C9-B9</f>
+        <v>-82352.260000010021</v>
+      </c>
+      <c r="E9" s="5">
+        <f>D9/B9</f>
+        <v>-3.9444515758219188E-2</v>
+      </c>
+      <c r="F9">
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <v>2229200</v>
+      </c>
+      <c r="H9">
+        <v>2118943.21</v>
+      </c>
+      <c r="I9">
+        <f>H9-G9</f>
+        <v>-110256.79000000004</v>
+      </c>
+      <c r="J9" s="5">
+        <f>I9/G9</f>
+        <v>-4.9460250314014013E-2</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>2296900</v>
+      </c>
+      <c r="M9">
+        <v>2108718.34</v>
+      </c>
+      <c r="N9">
+        <f>M9-L9</f>
+        <v>-188181.66000000015</v>
+      </c>
+      <c r="O9" s="5">
+        <f>N9/L9</f>
+        <v>-8.1928538464887526E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>9349400</v>
+      </c>
+      <c r="C10">
+        <v>8952825.2799999993</v>
+      </c>
+      <c r="D10">
+        <f>C10-B10</f>
+        <v>-396574.72000000067</v>
+      </c>
+      <c r="E10" s="5">
+        <f>D10/B10</f>
+        <v>-4.2417130511048909E-2</v>
+      </c>
+      <c r="F10">
         <v>16</v>
       </c>
-      <c r="B2">
+      <c r="G10">
+        <v>11073700</v>
+      </c>
+      <c r="H10">
+        <v>9929059.5199999996</v>
+      </c>
+      <c r="I10">
+        <f>H10-G10</f>
+        <v>-1144640.4800000004</v>
+      </c>
+      <c r="J10" s="5">
+        <f>I10/G10</f>
+        <v>-0.10336567542917005</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>10790500</v>
+      </c>
+      <c r="M10">
+        <v>9993599.52999999</v>
+      </c>
+      <c r="N10">
+        <f>M10-L10</f>
+        <v>-796900.47000000998</v>
+      </c>
+      <c r="O10" s="5">
+        <f>N10/L10</f>
+        <v>-7.3852043000788653E-2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>4280900</v>
+      </c>
+      <c r="C11">
+        <v>4066595.33</v>
+      </c>
+      <c r="D11">
+        <f>C11-B11</f>
+        <v>-214304.66999999993</v>
+      </c>
+      <c r="E11" s="5">
+        <f>D11/B11</f>
+        <v>-5.0060657805601608E-2</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>4700400</v>
+      </c>
+      <c r="H11">
+        <v>4205555.5999999996</v>
+      </c>
+      <c r="I11">
+        <f>H11-G11</f>
+        <v>-494844.40000000037</v>
+      </c>
+      <c r="J11" s="5">
+        <f>I11/G11</f>
+        <v>-0.10527708280146378</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <v>4677800</v>
+      </c>
+      <c r="M11">
+        <v>4371713.1399999997</v>
+      </c>
+      <c r="N11">
+        <f>M11-L11</f>
+        <v>-306086.86000000034</v>
+      </c>
+      <c r="O11" s="5">
+        <f>N11/L11</f>
+        <v>-6.5433934755654441E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>14860800</v>
+      </c>
+      <c r="C12">
+        <v>14439480.050000001</v>
+      </c>
+      <c r="D12">
+        <f>C12-B12</f>
+        <v>-421319.94999999925</v>
+      </c>
+      <c r="E12" s="5">
+        <f>D12/B12</f>
+        <v>-2.8351094826658003E-2</v>
+      </c>
+      <c r="F12">
+        <v>21</v>
+      </c>
+      <c r="G12">
+        <v>15309700</v>
+      </c>
+      <c r="H12">
+        <v>14645233.51</v>
+      </c>
+      <c r="I12">
+        <f>H12-G12</f>
+        <v>-664466.49000000022</v>
+      </c>
+      <c r="J12" s="5">
+        <f>I12/G12</f>
+        <v>-4.3401666263871937E-2</v>
+      </c>
+      <c r="K12">
+        <v>25</v>
+      </c>
+      <c r="L12">
+        <v>15311800</v>
+      </c>
+      <c r="M12">
+        <v>14346057.039999999</v>
+      </c>
+      <c r="N12">
+        <f>M12-L12</f>
+        <v>-965742.96000000089</v>
+      </c>
+      <c r="O12" s="5">
+        <f>N12/L12</f>
+        <v>-6.3071811282801551E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>8837300</v>
+      </c>
+      <c r="C13">
+        <v>8460963.1999999899</v>
+      </c>
+      <c r="D13">
+        <f>C13-B13</f>
+        <v>-376336.80000001006</v>
+      </c>
+      <c r="E13" s="5">
+        <f>D13/B13</f>
+        <v>-4.258504294298146E-2</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>9713300</v>
+      </c>
+      <c r="H13">
+        <v>8991707.2399999909</v>
+      </c>
+      <c r="I13">
+        <f>H13-G13</f>
+        <v>-721592.76000000909</v>
+      </c>
+      <c r="J13" s="5">
+        <f>I13/G13</f>
+        <v>-7.4289145810384635E-2</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>9343000</v>
+      </c>
+      <c r="M13">
+        <v>8766655.9100000001</v>
+      </c>
+      <c r="N13">
+        <f>M13-L13</f>
+        <v>-576344.08999999985</v>
+      </c>
+      <c r="O13" s="5">
+        <f>N13/L13</f>
+        <v>-6.1687262121374278E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>5249800</v>
+      </c>
+      <c r="C14">
+        <v>4801960.08</v>
+      </c>
+      <c r="D14">
+        <f>C14-B14</f>
+        <v>-447839.91999999993</v>
+      </c>
+      <c r="E14" s="5">
+        <f>D14/B14</f>
+        <v>-8.5306091660634673E-2</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>5442200</v>
+      </c>
+      <c r="H14">
+        <v>5122329.02999999</v>
+      </c>
+      <c r="I14">
+        <f>H14-G14</f>
+        <v>-319870.97000000998</v>
+      </c>
+      <c r="J14" s="5">
+        <f>I14/G14</f>
+        <v>-5.8776040939327839E-2</v>
+      </c>
+      <c r="K14">
+        <v>16</v>
+      </c>
+      <c r="L14">
+        <v>5430700</v>
+      </c>
+      <c r="M14">
+        <v>5117235.21</v>
+      </c>
+      <c r="N14">
+        <f>M14-L14</f>
+        <v>-313464.79000000004</v>
+      </c>
+      <c r="O14" s="5">
+        <f>N14/L14</f>
+        <v>-5.7720881286022069E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
         <v>356640100</v>
       </c>
-      <c r="C2">
+      <c r="C15">
         <v>341243679.13</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="G2">
+      <c r="D15">
+        <f>C15-B15</f>
+        <v>-15396420.870000005</v>
+      </c>
+      <c r="E15" s="5">
+        <f>D15/B15</f>
+        <v>-4.3170750765267295E-2</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15">
         <v>382685200</v>
       </c>
-      <c r="H2">
+      <c r="H15">
         <v>346340810.81999999</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="L2">
+      <c r="I15">
+        <f>H15-G15</f>
+        <v>-36344389.180000007</v>
+      </c>
+      <c r="J15" s="5">
+        <f>I15/G15</f>
+        <v>-9.4972027086493035E-2</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
         <v>376548600</v>
       </c>
-      <c r="M2">
+      <c r="M15">
         <v>355279492.22999901</v>
       </c>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
+      <c r="N15">
+        <f>M15-L15</f>
+        <v>-21269107.770000994</v>
+      </c>
+      <c r="O15" s="5">
+        <f>N15/L15</f>
+        <v>-5.6484362894991494E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16">
+        <v>6737100</v>
+      </c>
+      <c r="C16">
+        <v>6527352.5699999901</v>
+      </c>
+      <c r="D16">
+        <f>C16-B16</f>
+        <v>-209747.43000000995</v>
+      </c>
+      <c r="E16" s="5">
+        <f>D16/B16</f>
+        <v>-3.1133192323107857E-2</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>7214700</v>
+      </c>
+      <c r="H16">
+        <v>6922072.5599999996</v>
+      </c>
+      <c r="I16">
+        <f>H16-G16</f>
+        <v>-292627.44000000041</v>
+      </c>
+      <c r="J16" s="5">
+        <f>I16/G16</f>
+        <v>-4.0559890224125802E-2</v>
+      </c>
+      <c r="K16">
+        <v>29</v>
+      </c>
+      <c r="L16">
+        <v>7289800</v>
+      </c>
+      <c r="M16">
+        <v>6882350.23999999</v>
+      </c>
+      <c r="N16">
+        <f>M16-L16</f>
+        <v>-407449.76000001002</v>
+      </c>
+      <c r="O16" s="5">
+        <f>N16/L16</f>
+        <v>-5.5893132870587676E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>259100</v>
+      </c>
+      <c r="C17">
+        <v>258322.43</v>
+      </c>
+      <c r="D17">
+        <f>C17-B17</f>
+        <v>-777.57000000000698</v>
+      </c>
+      <c r="E17" s="5">
+        <f>D17/B17</f>
+        <v>-3.0010420686993711E-3</v>
+      </c>
+      <c r="F17">
+        <v>43</v>
+      </c>
+      <c r="G17">
+        <v>266000</v>
+      </c>
+      <c r="H17">
+        <v>257402.90999999901</v>
+      </c>
+      <c r="I17">
+        <f>H17-G17</f>
+        <v>-8597.090000000986</v>
+      </c>
+      <c r="J17" s="5">
+        <f>I17/G17</f>
+        <v>-3.2319887218048821E-2</v>
+      </c>
+      <c r="K17">
+        <v>33</v>
+      </c>
+      <c r="L17">
+        <v>267100</v>
+      </c>
+      <c r="M17">
+        <v>254753.15999999901</v>
+      </c>
+      <c r="N17">
+        <f>M17-L17</f>
+        <v>-12346.840000000986</v>
+      </c>
+      <c r="O17" s="5">
+        <f>N17/L17</f>
+        <v>-4.6225533508053113E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18">
+        <v>883900</v>
+      </c>
+      <c r="C18">
+        <v>813108.87</v>
+      </c>
+      <c r="D18">
+        <f>C18-B18</f>
+        <v>-70791.13</v>
+      </c>
+      <c r="E18" s="5">
+        <f>D18/B18</f>
+        <v>-8.008952370177623E-2</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>1294400</v>
+      </c>
+      <c r="H18">
+        <v>1114242.27999999</v>
+      </c>
+      <c r="I18">
+        <f>H18-G18</f>
+        <v>-180157.72000000998</v>
+      </c>
+      <c r="J18" s="5">
+        <f>I18/G18</f>
+        <v>-0.13918241656366656</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1759500</v>
+      </c>
+      <c r="M18">
+        <v>1680463.8699999901</v>
+      </c>
+      <c r="N18">
+        <f>M18-L18</f>
+        <v>-79036.1300000099</v>
+      </c>
+      <c r="O18" s="5">
+        <f>N18/L18</f>
+        <v>-4.4919653310605226E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B3">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19">
+        <v>8135400</v>
+      </c>
+      <c r="C19">
+        <v>7968645.8300000001</v>
+      </c>
+      <c r="D19">
+        <f>C19-B19</f>
+        <v>-166754.16999999993</v>
+      </c>
+      <c r="E19" s="5">
+        <f>D19/B19</f>
+        <v>-2.0497353541313264E-2</v>
+      </c>
+      <c r="F19">
+        <v>24</v>
+      </c>
+      <c r="G19">
+        <v>8560800</v>
+      </c>
+      <c r="H19">
+        <v>8171472.0199999996</v>
+      </c>
+      <c r="I19">
+        <f>H19-G19</f>
+        <v>-389327.98000000045</v>
+      </c>
+      <c r="J19" s="5">
+        <f>I19/G19</f>
+        <v>-4.5477990374731388E-2</v>
+      </c>
+      <c r="K19">
+        <v>23</v>
+      </c>
+      <c r="L19">
+        <v>8497500</v>
+      </c>
+      <c r="M19">
+        <v>8150982.5699999901</v>
+      </c>
+      <c r="N19">
+        <f>M19-L19</f>
+        <v>-346517.43000000995</v>
+      </c>
+      <c r="O19" s="5">
+        <f>N19/L19</f>
+        <v>-4.0778750220654303E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>512000</v>
+      </c>
+      <c r="C20">
+        <v>505017.37</v>
+      </c>
+      <c r="D20">
+        <f>C20-B20</f>
+        <v>-6982.6300000000047</v>
+      </c>
+      <c r="E20" s="5">
+        <f>D20/B20</f>
+        <v>-1.3637949218750009E-2</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>530500</v>
+      </c>
+      <c r="H20">
+        <v>524402.98</v>
+      </c>
+      <c r="I20">
+        <f>H20-G20</f>
+        <v>-6097.0200000000186</v>
+      </c>
+      <c r="J20" s="5">
+        <f>I20/G20</f>
+        <v>-1.1492968897266765E-2</v>
+      </c>
+      <c r="K20">
+        <v>40</v>
+      </c>
+      <c r="L20">
+        <v>526200</v>
+      </c>
+      <c r="M20">
+        <v>504989.88</v>
+      </c>
+      <c r="N20">
+        <f>M20-L20</f>
+        <v>-21210.119999999995</v>
+      </c>
+      <c r="O20" s="5">
+        <f>N20/L20</f>
+        <v>-4.0308095781071827E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>1765600</v>
+      </c>
+      <c r="C21">
+        <v>1740827.69</v>
+      </c>
+      <c r="D21">
+        <f>C21-B21</f>
+        <v>-24772.310000000056</v>
+      </c>
+      <c r="E21" s="5">
+        <f>D21/B21</f>
+        <v>-1.4030533529678329E-2</v>
+      </c>
+      <c r="F21">
+        <v>29</v>
+      </c>
+      <c r="G21">
+        <v>1823300</v>
+      </c>
+      <c r="H21">
+        <v>1762676.85</v>
+      </c>
+      <c r="I21">
+        <f>H21-G21</f>
+        <v>-60623.149999999907</v>
+      </c>
+      <c r="J21" s="5">
+        <f>I21/G21</f>
+        <v>-3.3249136181648611E-2</v>
+      </c>
+      <c r="K21">
+        <v>32</v>
+      </c>
+      <c r="L21">
+        <v>1870700</v>
+      </c>
+      <c r="M21">
+        <v>1801391.34</v>
+      </c>
+      <c r="N21">
+        <f>M21-L21</f>
+        <v>-69308.659999999916</v>
+      </c>
+      <c r="O21" s="5">
+        <f>N21/L21</f>
+        <v>-3.7049585716576634E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>24332100</v>
+      </c>
+      <c r="C22">
+        <v>22408587.5499999</v>
+      </c>
+      <c r="D22">
+        <f>C22-B22</f>
+        <v>-1923512.4500000998</v>
+      </c>
+      <c r="E22" s="5">
+        <f>D22/B22</f>
+        <v>-7.9052463618023094E-2</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>24497400</v>
+      </c>
+      <c r="H22">
+        <v>22655993.629999999</v>
+      </c>
+      <c r="I22">
+        <f>H22-G22</f>
+        <v>-1841406.370000001</v>
+      </c>
+      <c r="J22" s="5">
+        <f>I22/G22</f>
+        <v>-7.5167420624229556E-2</v>
+      </c>
+      <c r="K22">
+        <v>11</v>
+      </c>
+      <c r="L22">
+        <v>24323000</v>
+      </c>
+      <c r="M22">
+        <v>23434073.089999899</v>
+      </c>
+      <c r="N22">
+        <f>M22-L22</f>
+        <v>-888926.91000010073</v>
+      </c>
+      <c r="O22" s="5">
+        <f>N22/L22</f>
+        <v>-3.6546762734864152E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>7670700</v>
+      </c>
+      <c r="C23">
+        <v>6947552.6699999999</v>
+      </c>
+      <c r="D23">
+        <f>C23-B23</f>
+        <v>-723147.33000000007</v>
+      </c>
+      <c r="E23" s="5">
+        <f>D23/B23</f>
+        <v>-9.4273968477453174E-2</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>7968300</v>
+      </c>
+      <c r="H23">
+        <v>7020609.3200000003</v>
+      </c>
+      <c r="I23">
+        <f>H23-G23</f>
+        <v>-947690.6799999997</v>
+      </c>
+      <c r="J23" s="5">
+        <f>I23/G23</f>
+        <v>-0.118932605449092</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>7759600</v>
+      </c>
+      <c r="M23">
+        <v>7497322.9100000001</v>
+      </c>
+      <c r="N23">
+        <f>M23-L23</f>
+        <v>-262277.08999999985</v>
+      </c>
+      <c r="O23" s="5">
+        <f>N23/L23</f>
+        <v>-3.3800336357544182E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>5999400</v>
+      </c>
+      <c r="C24">
+        <v>5925637.7199999904</v>
+      </c>
+      <c r="D24">
+        <f>C24-B24</f>
+        <v>-73762.280000009574</v>
+      </c>
+      <c r="E24" s="5">
+        <f>D24/B24</f>
+        <v>-1.2294942827617691E-2</v>
+      </c>
+      <c r="F24">
+        <v>36</v>
+      </c>
+      <c r="G24">
+        <v>6195500</v>
+      </c>
+      <c r="H24">
+        <v>6084985.4699999997</v>
+      </c>
+      <c r="I24">
+        <f>H24-G24</f>
+        <v>-110514.53000000026</v>
+      </c>
+      <c r="J24" s="5">
+        <f>I24/G24</f>
+        <v>-1.7837871035428981E-2</v>
+      </c>
+      <c r="K24">
+        <v>35</v>
+      </c>
+      <c r="L24">
+        <v>6157400</v>
+      </c>
+      <c r="M24">
+        <v>5987572.0199999996</v>
+      </c>
+      <c r="N24">
+        <f>M24-L24</f>
+        <v>-169827.98000000045</v>
+      </c>
+      <c r="O24" s="5">
+        <f>N24/L24</f>
+        <v>-2.7581118653977402E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>4189300</v>
+      </c>
+      <c r="C25">
+        <v>4109958.22</v>
+      </c>
+      <c r="D25">
+        <f>C25-B25</f>
+        <v>-79341.779999999795</v>
+      </c>
+      <c r="E25" s="5">
+        <f>D25/B25</f>
+        <v>-1.8939149738619768E-2</v>
+      </c>
+      <c r="F25">
+        <v>26</v>
+      </c>
+      <c r="G25">
+        <v>4350600</v>
+      </c>
+      <c r="H25">
+        <v>4137588.7699999898</v>
+      </c>
+      <c r="I25">
+        <f>H25-G25</f>
+        <v>-213011.23000001023</v>
+      </c>
+      <c r="J25" s="5">
+        <f>I25/G25</f>
+        <v>-4.8961345561534093E-2</v>
+      </c>
+      <c r="K25">
+        <v>21</v>
+      </c>
+      <c r="L25">
+        <v>4345600</v>
+      </c>
+      <c r="M25">
+        <v>4229801.51</v>
+      </c>
+      <c r="N25">
+        <f>M25-L25</f>
+        <v>-115798.49000000022</v>
+      </c>
+      <c r="O25" s="5">
+        <f>N25/L25</f>
+        <v>-2.6647296115611244E-2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>3130600</v>
+      </c>
+      <c r="C26">
+        <v>3115157.5599999898</v>
+      </c>
+      <c r="D26">
+        <f>C26-B26</f>
+        <v>-15442.440000010189</v>
+      </c>
+      <c r="E26" s="5">
+        <f>D26/B26</f>
+        <v>-4.9327413275443007E-3</v>
+      </c>
+      <c r="F26">
+        <v>42</v>
+      </c>
+      <c r="G26">
+        <v>3652300</v>
+      </c>
+      <c r="H26">
+        <v>3589693.2099999902</v>
+      </c>
+      <c r="I26">
+        <f>H26-G26</f>
+        <v>-62606.790000009816</v>
+      </c>
+      <c r="J26" s="5">
+        <f>I26/G26</f>
+        <v>-1.7141743558856015E-2</v>
+      </c>
+      <c r="K26">
+        <v>36</v>
+      </c>
+      <c r="L26">
+        <v>3662400</v>
+      </c>
+      <c r="M26">
+        <v>3564983.04999999</v>
+      </c>
+      <c r="N26">
+        <f>M26-L26</f>
+        <v>-97416.950000009965</v>
+      </c>
+      <c r="O26" s="5">
+        <f>N26/L26</f>
+        <v>-2.6599210899959033E-2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>20862700</v>
+      </c>
+      <c r="C27">
+        <v>20036743.4099999</v>
+      </c>
+      <c r="D27">
+        <f>C27-B27</f>
+        <v>-825956.59000010043</v>
+      </c>
+      <c r="E27" s="5">
+        <f>D27/B27</f>
+        <v>-3.9590110100806722E-2</v>
+      </c>
+      <c r="F27">
+        <v>18</v>
+      </c>
+      <c r="G27">
+        <v>22683800</v>
+      </c>
+      <c r="H27">
+        <v>21722126.219999898</v>
+      </c>
+      <c r="I27">
+        <f>H27-G27</f>
+        <v>-961673.78000010177</v>
+      </c>
+      <c r="J27" s="5">
+        <f>I27/G27</f>
+        <v>-4.2394738976719144E-2</v>
+      </c>
+      <c r="K27">
+        <v>26</v>
+      </c>
+      <c r="L27">
+        <v>23220300</v>
+      </c>
+      <c r="M27">
+        <v>22619057.440000001</v>
+      </c>
+      <c r="N27">
+        <f>M27-L27</f>
+        <v>-601242.55999999866</v>
+      </c>
+      <c r="O27" s="5">
+        <f>N27/L27</f>
+        <v>-2.5892971236375011E-2</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>5847800</v>
+      </c>
+      <c r="C28">
+        <v>5772288.3300000001</v>
+      </c>
+      <c r="D28">
+        <f>C28-B28</f>
+        <v>-75511.669999999925</v>
+      </c>
+      <c r="E28" s="5">
+        <f>D28/B28</f>
+        <v>-1.2912833886247806E-2</v>
+      </c>
+      <c r="F28">
+        <v>33</v>
+      </c>
+      <c r="G28">
+        <v>6223700</v>
+      </c>
+      <c r="H28">
+        <v>5909077.9399999902</v>
+      </c>
+      <c r="I28">
+        <f>H28-G28</f>
+        <v>-314622.06000000983</v>
+      </c>
+      <c r="J28" s="5">
+        <f>I28/G28</f>
+        <v>-5.0552253482656594E-2</v>
+      </c>
+      <c r="K28">
+        <v>18</v>
+      </c>
+      <c r="L28">
+        <v>6207300</v>
+      </c>
+      <c r="M28">
+        <v>6056976.6699999999</v>
+      </c>
+      <c r="N28">
+        <f>M28-L28</f>
+        <v>-150323.33000000007</v>
+      </c>
+      <c r="O28" s="5">
+        <f>N28/L28</f>
+        <v>-2.4217184605222895E-2</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>156049100</v>
+      </c>
+      <c r="C29">
+        <v>156545919.90000001</v>
+      </c>
+      <c r="D29">
+        <f>C29-B29</f>
+        <v>496819.90000000596</v>
+      </c>
+      <c r="E29" s="5">
+        <f>D29/B29</f>
+        <v>3.1837408866824991E-3</v>
+      </c>
+      <c r="F29">
+        <v>48</v>
+      </c>
+      <c r="G29">
+        <v>184167800</v>
+      </c>
+      <c r="H29">
+        <v>175966389.24999899</v>
+      </c>
+      <c r="I29">
+        <f>H29-G29</f>
+        <v>-8201410.7500010133</v>
+      </c>
+      <c r="J29" s="5">
+        <f>I29/G29</f>
+        <v>-4.4532273014072019E-2</v>
+      </c>
+      <c r="K29">
+        <v>24</v>
+      </c>
+      <c r="L29">
+        <v>188953500</v>
+      </c>
+      <c r="M29">
+        <v>184450910.84999901</v>
+      </c>
+      <c r="N29">
+        <f>M29-L29</f>
+        <v>-4502589.1500009894</v>
+      </c>
+      <c r="O29" s="5">
+        <f>N29/L29</f>
+        <v>-2.3829085727446114E-2</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>443300</v>
+      </c>
+      <c r="C30">
+        <v>407090.37</v>
+      </c>
+      <c r="D30">
+        <f>C30-B30</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="E30" s="5">
+        <f>D30/B30</f>
+        <v>-8.1681998646514792E-2</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>495200</v>
+      </c>
+      <c r="H30">
+        <v>467907.84000000003</v>
+      </c>
+      <c r="I30">
+        <f>H30-G30</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="J30" s="5">
+        <f>I30/G30</f>
+        <v>-5.5113408723747932E-2</v>
+      </c>
+      <c r="K30">
+        <v>17</v>
+      </c>
+      <c r="L30">
+        <v>487500</v>
+      </c>
+      <c r="M30">
+        <v>478318.92</v>
+      </c>
+      <c r="N30">
+        <f>M30-L30</f>
+        <v>-9181.0800000000163</v>
+      </c>
+      <c r="O30" s="5">
+        <f>N30/L30</f>
+        <v>-1.883298461538465E-2</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>4593300</v>
+      </c>
+      <c r="C31">
+        <v>4409060.2099999897</v>
+      </c>
+      <c r="D31">
+        <f>C31-B31</f>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="E31" s="5">
+        <f>D31/B31</f>
+        <v>-4.0110550149132493E-2</v>
+      </c>
+      <c r="F31">
+        <v>17</v>
+      </c>
+      <c r="G31">
+        <v>5089500</v>
+      </c>
+      <c r="H31">
+        <v>4956043.6699999897</v>
+      </c>
+      <c r="I31">
+        <f>H31-G31</f>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="J31" s="5">
+        <f>I31/G31</f>
+        <v>-2.6221894095689226E-2</v>
+      </c>
+      <c r="K31">
+        <v>34</v>
+      </c>
+      <c r="L31">
+        <v>4799900</v>
+      </c>
+      <c r="M31">
+        <v>4717822.6500000004</v>
+      </c>
+      <c r="N31">
+        <f>M31-L31</f>
+        <v>-82077.349999999627</v>
+      </c>
+      <c r="O31" s="5">
+        <f>N31/L31</f>
+        <v>-1.7099804162586642E-2</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32">
+        <v>38381900</v>
+      </c>
+      <c r="C32">
+        <v>37565141.859999903</v>
+      </c>
+      <c r="D32">
+        <f>C32-B32</f>
+        <v>-816758.14000009745</v>
+      </c>
+      <c r="E32" s="5">
+        <f>D32/B32</f>
+        <v>-2.1279773539092578E-2</v>
+      </c>
+      <c r="F32">
+        <v>23</v>
+      </c>
+      <c r="G32">
+        <v>39964900</v>
+      </c>
+      <c r="H32">
+        <v>38095240.189999901</v>
+      </c>
+      <c r="I32">
+        <f>H32-G32</f>
+        <v>-1869659.8100000992</v>
+      </c>
+      <c r="J32" s="5">
+        <f>I32/G32</f>
+        <v>-4.6782546934937892E-2</v>
+      </c>
+      <c r="K32">
+        <v>22</v>
+      </c>
+      <c r="L32">
+        <v>40216700</v>
+      </c>
+      <c r="M32">
+        <v>39606263.709999897</v>
+      </c>
+      <c r="N32">
+        <f>M32-L32</f>
+        <v>-610436.29000010341</v>
+      </c>
+      <c r="O32" s="5">
+        <f>N32/L32</f>
+        <v>-1.5178676768608648E-2</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33">
+        <v>55301600</v>
+      </c>
+      <c r="C33">
+        <v>54589584.0499999</v>
+      </c>
+      <c r="D33">
+        <f>C33-B33</f>
+        <v>-712015.95000009984</v>
+      </c>
+      <c r="E33" s="5">
+        <f>D33/B33</f>
+        <v>-1.287514194887851E-2</v>
+      </c>
+      <c r="F33">
+        <v>34</v>
+      </c>
+      <c r="G33">
+        <v>56792200</v>
+      </c>
+      <c r="H33">
+        <v>54594953.959999897</v>
+      </c>
+      <c r="I33">
+        <f>H33-G33</f>
+        <v>-2197246.0400001034</v>
+      </c>
+      <c r="J33" s="5">
+        <f>I33/G33</f>
+        <v>-3.8689222111488959E-2</v>
+      </c>
+      <c r="K33">
+        <v>30</v>
+      </c>
+      <c r="L33">
+        <v>56027100</v>
+      </c>
+      <c r="M33">
+        <v>55386549.6599999</v>
+      </c>
+      <c r="N33">
+        <f>M33-L33</f>
+        <v>-640550.34000010043</v>
+      </c>
+      <c r="O33" s="5">
+        <f>N33/L33</f>
+        <v>-1.1432866237947358E-2</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34">
+        <v>8609500</v>
+      </c>
+      <c r="C34">
+        <v>8499425.3399999905</v>
+      </c>
+      <c r="D34">
+        <f>C34-B34</f>
+        <v>-110074.66000000946</v>
+      </c>
+      <c r="E34" s="5">
+        <f>D34/B34</f>
+        <v>-1.2785255822058129E-2</v>
+      </c>
+      <c r="F34">
+        <v>35</v>
+      </c>
+      <c r="G34">
+        <v>8925500</v>
+      </c>
+      <c r="H34">
+        <v>8599059.6199999992</v>
+      </c>
+      <c r="I34">
+        <f>H34-G34</f>
+        <v>-326440.38000000082</v>
+      </c>
+      <c r="J34" s="5">
+        <f>I34/G34</f>
+        <v>-3.6573903982970231E-2</v>
+      </c>
+      <c r="K34">
+        <v>31</v>
+      </c>
+      <c r="L34">
+        <v>8833900</v>
+      </c>
+      <c r="M34">
+        <v>8735843.3100000005</v>
+      </c>
+      <c r="N34">
+        <f>M34-L34</f>
+        <v>-98056.689999999478</v>
+      </c>
+      <c r="O34" s="5">
+        <f>N34/L34</f>
+        <v>-1.1100045280114048E-2</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35">
+        <v>927703099.99999905</v>
+      </c>
+      <c r="C35">
+        <v>920284264.73000002</v>
+      </c>
+      <c r="D35">
+        <f>C35-B35</f>
+        <v>-7418835.2699990273</v>
+      </c>
+      <c r="E35" s="5">
+        <f>D35/B35</f>
+        <v>-7.9969930789269058E-3</v>
+      </c>
+      <c r="F35">
+        <v>41</v>
+      </c>
+      <c r="G35">
+        <v>979671000</v>
+      </c>
+      <c r="H35">
+        <v>977068513.48000002</v>
+      </c>
+      <c r="I35">
+        <f>H35-G35</f>
+        <v>-2602486.5199999809</v>
+      </c>
+      <c r="J35" s="5">
+        <f>I35/G35</f>
+        <v>-2.6564903115433454E-3</v>
+      </c>
+      <c r="K35">
+        <v>43</v>
+      </c>
+      <c r="L35">
+        <v>989572899.99999905</v>
+      </c>
+      <c r="M35">
+        <v>984116289.40999901</v>
+      </c>
+      <c r="N35">
+        <f>M35-L35</f>
+        <v>-5456610.5900000334</v>
+      </c>
+      <c r="O35" s="5">
+        <f>N35/L35</f>
+        <v>-5.5141067323084929E-3</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>484100</v>
+      </c>
+      <c r="C36">
+        <v>479149.53</v>
+      </c>
+      <c r="D36">
+        <f>C36-B36</f>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="E36" s="5">
+        <f>D36/B36</f>
+        <v>-1.0226130964676661E-2</v>
+      </c>
+      <c r="F36">
+        <v>38</v>
+      </c>
+      <c r="G36">
+        <v>505200</v>
+      </c>
+      <c r="H36">
+        <v>497194.20999999897</v>
+      </c>
+      <c r="I36">
+        <f>H36-G36</f>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="J36" s="5">
+        <f>I36/G36</f>
+        <v>-1.5846773555029746E-2</v>
+      </c>
+      <c r="K36">
+        <v>37</v>
+      </c>
+      <c r="L36">
+        <v>496500</v>
+      </c>
+      <c r="M36">
+        <v>494775.1</v>
+      </c>
+      <c r="N36">
+        <f>M36-L36</f>
+        <v>-1724.9000000000233</v>
+      </c>
+      <c r="O36" s="5">
+        <f>N36/L36</f>
+        <v>-3.4741188318228064E-3</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>12132200</v>
+      </c>
+      <c r="C37">
+        <v>12030494.1</v>
+      </c>
+      <c r="D37">
+        <f>C37-B37</f>
+        <v>-101705.90000000037</v>
+      </c>
+      <c r="E37" s="5">
+        <f>D37/B37</f>
+        <v>-8.3831374359143746E-3</v>
+      </c>
+      <c r="F37">
+        <v>40</v>
+      </c>
+      <c r="G37">
+        <v>12735900</v>
+      </c>
+      <c r="H37">
+        <v>12685514.279999901</v>
+      </c>
+      <c r="I37">
+        <f>H37-G37</f>
+        <v>-50385.720000099391</v>
+      </c>
+      <c r="J37" s="5">
+        <f>I37/G37</f>
+        <v>-3.9561962641116366E-3</v>
+      </c>
+      <c r="K37">
+        <v>42</v>
+      </c>
+      <c r="L37">
+        <v>12861300</v>
+      </c>
+      <c r="M37">
+        <v>12826009.609999999</v>
+      </c>
+      <c r="N37">
+        <f>M37-L37</f>
+        <v>-35290.390000000596</v>
+      </c>
+      <c r="O37" s="5">
+        <f>N37/L37</f>
+        <v>-2.7439209100169185E-3</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38">
         <v>328800</v>
       </c>
-      <c r="C3">
+      <c r="C38">
         <v>321214.59000000003</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="G3">
+      <c r="D38">
+        <f>C38-B38</f>
+        <v>-7585.4099999999744</v>
+      </c>
+      <c r="E38" s="5">
+        <f>D38/B38</f>
+        <v>-2.3069981751824741E-2</v>
+      </c>
+      <c r="F38">
+        <v>22</v>
+      </c>
+      <c r="G38">
         <v>334800</v>
       </c>
-      <c r="H3">
+      <c r="H38">
         <v>312433.70999999897</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="L3">
+      <c r="I38">
+        <f>H38-G38</f>
+        <v>-22366.290000001027</v>
+      </c>
+      <c r="J38" s="5">
+        <f>I38/G38</f>
+        <v>-6.6804928315415249E-2</v>
+      </c>
+      <c r="K38">
+        <v>14</v>
+      </c>
+      <c r="L38">
         <v>322700</v>
       </c>
-      <c r="M3">
+      <c r="M38">
         <v>322263.03999999998</v>
       </c>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>3130600</v>
-      </c>
-      <c r="C4">
-        <v>3115157.5599999898</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="G4">
-        <v>3652300</v>
-      </c>
-      <c r="H4">
-        <v>3589693.2099999902</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="L4">
-        <v>3662400</v>
-      </c>
-      <c r="M4">
-        <v>3564983.04999999</v>
-      </c>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
+      <c r="N38">
+        <f>M38-L38</f>
+        <v>-436.96000000002095</v>
+      </c>
+      <c r="O38" s="5">
+        <f>N38/L38</f>
+        <v>-1.3540749922529313E-3</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39">
+        <v>70390700</v>
+      </c>
+      <c r="C39">
+        <v>70378426.719999999</v>
+      </c>
+      <c r="D39">
+        <f>C39-B39</f>
+        <v>-12273.280000001192</v>
+      </c>
+      <c r="E39" s="5">
+        <f>D39/B39</f>
+        <v>-1.7435939690898361E-4</v>
+      </c>
+      <c r="F39">
+        <v>45</v>
+      </c>
+      <c r="G39">
+        <v>73467000</v>
+      </c>
+      <c r="H39">
+        <v>73442541.659999996</v>
+      </c>
+      <c r="I39">
+        <f>H39-G39</f>
+        <v>-24458.340000003576</v>
+      </c>
+      <c r="J39" s="5">
+        <f>I39/G39</f>
+        <v>-3.3291600310348285E-4</v>
+      </c>
+      <c r="K39">
+        <v>45</v>
+      </c>
+      <c r="L39">
+        <v>75072800</v>
+      </c>
+      <c r="M39">
+        <v>75050829.179999903</v>
+      </c>
+      <c r="N39">
+        <f>M39-L39</f>
+        <v>-21970.820000097156</v>
+      </c>
+      <c r="O39" s="5">
+        <f>N39/L39</f>
+        <v>-2.9266019117572752E-4</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>409300</v>
+      </c>
+      <c r="C40">
+        <v>385908.52</v>
+      </c>
+      <c r="D40">
+        <f>C40-B40</f>
+        <v>-23391.479999999981</v>
+      </c>
+      <c r="E40" s="5">
+        <f>D40/B40</f>
+        <v>-5.7149963352064452E-2</v>
+      </c>
+      <c r="F40">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <v>428500</v>
+      </c>
+      <c r="H40">
+        <v>427758.64</v>
+      </c>
+      <c r="I40">
+        <f>H40-G40</f>
+        <v>-741.35999999998603</v>
+      </c>
+      <c r="J40" s="5">
+        <f>I40/G40</f>
+        <v>-1.7301283547257551E-3</v>
+      </c>
+      <c r="K40">
+        <v>44</v>
+      </c>
+      <c r="L40">
+        <v>445200</v>
+      </c>
+      <c r="M40">
+        <v>445114.28999999899</v>
+      </c>
+      <c r="N40">
+        <f>M40-L40</f>
+        <v>-85.710000001010485</v>
+      </c>
+      <c r="O40" s="5">
+        <f>N40/L40</f>
+        <v>-1.925202156356929E-4</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41">
+        <v>855300</v>
+      </c>
+      <c r="C41">
+        <v>838669.82</v>
+      </c>
+      <c r="D41">
+        <f>C41-B41</f>
+        <v>-16630.180000000051</v>
+      </c>
+      <c r="E41" s="5">
+        <f>D41/B41</f>
+        <v>-1.9443680579913542E-2</v>
+      </c>
+      <c r="F41">
+        <v>25</v>
+      </c>
+      <c r="G41">
+        <v>792800</v>
+      </c>
+      <c r="H41">
+        <v>753451.96</v>
+      </c>
+      <c r="I41">
+        <f>H41-G41</f>
+        <v>-39348.040000000037</v>
+      </c>
+      <c r="J41" s="5">
+        <f>I41/G41</f>
+        <v>-4.9631735620585316E-2</v>
+      </c>
+      <c r="K41">
         <v>19</v>
       </c>
-      <c r="B5">
-        <v>7670700</v>
-      </c>
-      <c r="C5">
-        <v>6947552.6699999999</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="G5">
-        <v>7968300</v>
-      </c>
-      <c r="H5">
-        <v>7020609.3200000003</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="L5">
-        <v>7759600</v>
-      </c>
-      <c r="M5">
-        <v>7497322.9100000001</v>
-      </c>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>409300</v>
-      </c>
-      <c r="C6">
-        <v>385908.52</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="G6">
-        <v>428500</v>
-      </c>
-      <c r="H6">
-        <v>427758.64</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="L6">
-        <v>445200</v>
-      </c>
-      <c r="M6">
-        <v>445114.28999999899</v>
-      </c>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>3329000</v>
-      </c>
-      <c r="C7">
-        <v>2946071.21</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="G7">
-        <v>3390900</v>
-      </c>
-      <c r="H7">
-        <v>3051483.41</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="L7">
-        <v>3345200</v>
-      </c>
-      <c r="M7">
-        <v>2946440.08</v>
-      </c>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>1552100</v>
-      </c>
-      <c r="C8">
-        <v>1315623.30999999</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="G8">
-        <v>1590700</v>
-      </c>
-      <c r="H8">
-        <v>1383905.98999999</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="L8">
-        <v>1579300</v>
-      </c>
-      <c r="M8">
-        <v>1337735.3199999901</v>
-      </c>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>9349400</v>
-      </c>
-      <c r="C9">
-        <v>8952825.2799999993</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="G9">
-        <v>11073700</v>
-      </c>
-      <c r="H9">
-        <v>9929059.5199999996</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="L9">
-        <v>10790500</v>
-      </c>
-      <c r="M9">
-        <v>9993599.52999999</v>
-      </c>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>443300</v>
-      </c>
-      <c r="C10">
-        <v>407090.37</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="G10">
-        <v>495200</v>
-      </c>
-      <c r="H10">
-        <v>467907.84000000003</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="L10">
-        <v>487500</v>
-      </c>
-      <c r="M10">
-        <v>478318.92</v>
-      </c>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="L11">
-        <v>375000</v>
-      </c>
-      <c r="M11">
-        <v>63771.91</v>
-      </c>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12">
-        <v>4280900</v>
-      </c>
-      <c r="C12">
-        <v>4066595.33</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12">
-        <v>4700400</v>
-      </c>
-      <c r="H12">
-        <v>4205555.5999999996</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="L12">
-        <v>4677800</v>
-      </c>
-      <c r="M12">
-        <v>4371713.1399999997</v>
-      </c>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
+      <c r="L41">
+        <v>777800</v>
+      </c>
+      <c r="M41">
+        <v>777663.26</v>
+      </c>
+      <c r="N41">
+        <f>M41-L41</f>
+        <v>-136.73999999999069</v>
+      </c>
+      <c r="O41" s="5">
+        <f>N41/L41</f>
+        <v>-1.7580354847003174E-4</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>917200</v>
+      </c>
+      <c r="C42">
+        <v>904969.19</v>
+      </c>
+      <c r="D42">
+        <f>C42-B42</f>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="E42" s="5">
+        <f>D42/B42</f>
+        <v>-1.3334943305713101E-2</v>
+      </c>
+      <c r="F42">
+        <v>31</v>
+      </c>
+      <c r="G42">
+        <v>1112700</v>
+      </c>
+      <c r="H42">
+        <v>1067214.42</v>
+      </c>
+      <c r="I42">
+        <f>H42-G42</f>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="J42" s="5">
+        <f>I42/G42</f>
+        <v>-4.087856565111897E-2</v>
+      </c>
+      <c r="K42">
+        <v>28</v>
+      </c>
+      <c r="L42">
+        <v>1112600</v>
+      </c>
+      <c r="M42">
+        <v>1112527.1200000001</v>
+      </c>
+      <c r="N42">
+        <f>M42-L42</f>
+        <v>-72.879999999888241</v>
+      </c>
+      <c r="O42" s="5">
+        <f>N42/L42</f>
+        <v>-6.5504224339284781E-5</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <v>11566000</v>
+      </c>
+      <c r="C43">
+        <v>11412339.8799999</v>
+      </c>
+      <c r="D43">
+        <f>C43-B43</f>
+        <v>-153660.12000009976</v>
+      </c>
+      <c r="E43" s="5">
+        <f>D43/B43</f>
+        <v>-1.3285502334437123E-2</v>
+      </c>
+      <c r="F43">
+        <v>32</v>
+      </c>
+      <c r="G43">
+        <v>11980700</v>
+      </c>
+      <c r="H43">
+        <v>11791977.9699999</v>
+      </c>
+      <c r="I43">
+        <f>H43-G43</f>
+        <v>-188722.03000009991</v>
+      </c>
+      <c r="J43" s="5">
+        <f>I43/G43</f>
+        <v>-1.5752170574348738E-2</v>
+      </c>
+      <c r="K43">
+        <v>38</v>
+      </c>
+      <c r="L43">
+        <v>11935200</v>
+      </c>
+      <c r="M43">
+        <v>11934454.77</v>
+      </c>
+      <c r="N43">
+        <f>M43-L43</f>
+        <v>-745.23000000044703</v>
+      </c>
+      <c r="O43" s="5">
+        <f>N43/L43</f>
+        <v>-6.2439674240938325E-5</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44">
+        <v>6600700</v>
+      </c>
+      <c r="C44">
+        <v>6522480.4599999897</v>
+      </c>
+      <c r="D44">
+        <f>C44-B44</f>
+        <v>-78219.540000010282</v>
+      </c>
+      <c r="E44" s="5">
+        <f>D44/B44</f>
+        <v>-1.1850188616360429E-2</v>
+      </c>
+      <c r="F44">
+        <v>37</v>
+      </c>
+      <c r="G44">
+        <v>7352500</v>
+      </c>
+      <c r="H44">
+        <v>7350464.0800000001</v>
+      </c>
+      <c r="I44">
+        <f>H44-G44</f>
+        <v>-2035.9199999999255</v>
+      </c>
+      <c r="J44" s="5">
+        <f>I44/G44</f>
+        <v>-2.769017341040361E-4</v>
+      </c>
+      <c r="K44">
+        <v>46</v>
+      </c>
+      <c r="L44">
+        <v>7397200</v>
+      </c>
+      <c r="M44">
+        <v>7397093</v>
+      </c>
+      <c r="N44">
+        <f>M44-L44</f>
+        <v>-107</v>
+      </c>
+      <c r="O44" s="5">
+        <f>N44/L44</f>
+        <v>-1.4464932677229222E-5</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>2561800</v>
+      </c>
+      <c r="C45">
+        <v>2523884.71</v>
+      </c>
+      <c r="D45">
+        <f>C45-B45</f>
+        <v>-37915.290000000037</v>
+      </c>
+      <c r="E45" s="5">
+        <f>D45/B45</f>
+        <v>-1.4800253727847622E-2</v>
+      </c>
+      <c r="F45">
+        <v>28</v>
+      </c>
+      <c r="G45">
+        <v>2779500</v>
+      </c>
+      <c r="H45">
+        <v>2665264.4399999902</v>
+      </c>
+      <c r="I45">
+        <f>H45-G45</f>
+        <v>-114235.56000000983</v>
+      </c>
+      <c r="J45" s="5">
+        <f>I45/G45</f>
+        <v>-4.1099320021590155E-2</v>
+      </c>
+      <c r="K45">
         <v>27</v>
       </c>
-      <c r="B13">
-        <v>5847800</v>
-      </c>
-      <c r="C13">
-        <v>5772288.3300000001</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13">
-        <v>6223700</v>
-      </c>
-      <c r="H13">
-        <v>5909077.9399999902</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="L13">
-        <v>6207300</v>
-      </c>
-      <c r="M13">
-        <v>6056976.6699999999</v>
-      </c>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14">
-        <v>512000</v>
-      </c>
-      <c r="C14">
-        <v>505017.37</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="G14">
-        <v>530500</v>
-      </c>
-      <c r="H14">
-        <v>524402.98</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="L14">
-        <v>526200</v>
-      </c>
-      <c r="M14">
-        <v>504989.88</v>
-      </c>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15">
-        <v>156049100</v>
-      </c>
-      <c r="C15">
-        <v>156545919.90000001</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="G15">
-        <v>184167800</v>
-      </c>
-      <c r="H15">
-        <v>175966389.24999899</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="L15">
-        <v>188953500</v>
-      </c>
-      <c r="M15">
-        <v>184450910.84999901</v>
-      </c>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16">
-        <v>6600700</v>
-      </c>
-      <c r="C16">
-        <v>6522480.4599999897</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="G16">
-        <v>7352500</v>
-      </c>
-      <c r="H16">
-        <v>7350464.0800000001</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="L16">
-        <v>7397200</v>
-      </c>
-      <c r="M16">
-        <v>7397093</v>
-      </c>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17">
-        <v>14860800</v>
-      </c>
-      <c r="C17">
-        <v>14439480.050000001</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="G17">
-        <v>15309700</v>
-      </c>
-      <c r="H17">
-        <v>14645233.51</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="L17">
-        <v>15311800</v>
-      </c>
-      <c r="M17">
-        <v>14346057.039999999</v>
-      </c>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18">
-        <v>2764700</v>
-      </c>
-      <c r="C18">
-        <v>2615303.8999999901</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="G18">
-        <v>2861000</v>
-      </c>
-      <c r="H18">
-        <v>2671745.94</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="L18">
-        <v>2910600</v>
-      </c>
-      <c r="M18">
-        <v>2535637.09</v>
-      </c>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19">
-        <v>8837300</v>
-      </c>
-      <c r="C19">
-        <v>8460963.1999999899</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="G19">
-        <v>9713300</v>
-      </c>
-      <c r="H19">
-        <v>8991707.2399999909</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="L19">
-        <v>9343000</v>
-      </c>
-      <c r="M19">
-        <v>8766655.9100000001</v>
-      </c>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" t="s">
+      <c r="L45">
+        <v>2889900</v>
+      </c>
+      <c r="M45">
+        <v>2889864.67</v>
+      </c>
+      <c r="N45">
+        <f>M45-L45</f>
+        <v>-35.330000000074506</v>
+      </c>
+      <c r="O45" s="5">
+        <f>N45/L45</f>
+        <v>-1.2225336516860273E-5</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46">
+        <v>30083200</v>
+      </c>
+      <c r="C46">
+        <v>29789104.379999999</v>
+      </c>
+      <c r="D46">
+        <f>C46-B46</f>
+        <v>-294095.62000000104</v>
+      </c>
+      <c r="E46" s="5">
+        <f>D46/B46</f>
+        <v>-9.7760750186150751E-3</v>
+      </c>
+      <c r="F46">
+        <v>39</v>
+      </c>
+      <c r="G46">
+        <v>31040700</v>
+      </c>
+      <c r="H46">
+        <v>30793711.48</v>
+      </c>
+      <c r="I46">
+        <f>H46-G46</f>
+        <v>-246988.51999999955</v>
+      </c>
+      <c r="J46" s="5">
+        <f>I46/G46</f>
+        <v>-7.9569249404813532E-3</v>
+      </c>
+      <c r="K46">
+        <v>41</v>
+      </c>
+      <c r="L46">
+        <v>31282200</v>
+      </c>
+      <c r="M46">
+        <v>31282141.25</v>
+      </c>
+      <c r="N46">
+        <f>M46-L46</f>
+        <v>-58.75</v>
+      </c>
+      <c r="O46" s="5">
+        <f>N46/L46</f>
+        <v>-1.8780648419868168E-6</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>34</v>
       </c>
-      <c r="B20">
+      <c r="B47">
         <v>124385900</v>
       </c>
-      <c r="C20">
+      <c r="C47">
         <v>124384360.159999</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="G20">
+      <c r="D47">
+        <f>C47-B47</f>
+        <v>-1539.8400010019541</v>
+      </c>
+      <c r="E47" s="5">
+        <f>D47/B47</f>
+        <v>-1.2379538203300809E-5</v>
+      </c>
+      <c r="F47">
+        <v>46</v>
+      </c>
+      <c r="G47">
         <v>131849400</v>
       </c>
-      <c r="H20">
+      <c r="H47">
         <v>131839624.37</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="L20">
+      <c r="I47">
+        <f>H47-G47</f>
+        <v>-9775.6299999952316</v>
+      </c>
+      <c r="J47" s="5">
+        <f>I47/G47</f>
+        <v>-7.4142392760188761E-5</v>
+      </c>
+      <c r="K47">
+        <v>47</v>
+      </c>
+      <c r="L47">
         <v>130621400</v>
       </c>
-      <c r="M20">
+      <c r="M47">
         <v>130621283.53999899</v>
       </c>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21">
-        <v>24332100</v>
-      </c>
-      <c r="C21">
-        <v>22408587.5499999</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="G21">
-        <v>24497400</v>
-      </c>
-      <c r="H21">
-        <v>22655993.629999999</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="L21">
-        <v>24323000</v>
-      </c>
-      <c r="M21">
-        <v>23434073.089999899</v>
-      </c>
-      <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22">
-        <v>11566000</v>
-      </c>
-      <c r="C22">
-        <v>11412339.8799999</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="G22">
-        <v>11980700</v>
-      </c>
-      <c r="H22">
-        <v>11791977.9699999</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="L22">
-        <v>11935200</v>
-      </c>
-      <c r="M22">
-        <v>11934454.77</v>
-      </c>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23">
-        <v>20862700</v>
-      </c>
-      <c r="C23">
-        <v>20036743.4099999</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="G23">
-        <v>22683800</v>
-      </c>
-      <c r="H23">
-        <v>21722126.219999898</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="L23">
-        <v>23220300</v>
-      </c>
-      <c r="M23">
-        <v>22619057.440000001</v>
-      </c>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24">
-        <v>917200</v>
-      </c>
-      <c r="C24">
-        <v>904969.19</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="G24">
-        <v>1112700</v>
-      </c>
-      <c r="H24">
-        <v>1067214.42</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="L24">
-        <v>1112600</v>
-      </c>
-      <c r="M24">
-        <v>1112527.1200000001</v>
-      </c>
-      <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" t="s">
+      <c r="N47">
+        <f>M47-L47</f>
+        <v>-116.46000100672245</v>
+      </c>
+      <c r="O47" s="5">
+        <f>N47/L47</f>
+        <v>-8.9158438821450736E-7</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>188593300</v>
+      </c>
+      <c r="C48">
+        <v>188551675.67999899</v>
+      </c>
+      <c r="D48">
+        <f>C48-B48</f>
+        <v>-41624.320001006126</v>
+      </c>
+      <c r="E48" s="5">
+        <f>D48/B48</f>
+        <v>-2.2070943135841053E-4</v>
+      </c>
+      <c r="F48">
+        <v>44</v>
+      </c>
+      <c r="G48">
+        <v>199130300</v>
+      </c>
+      <c r="H48">
+        <v>196755033.31</v>
+      </c>
+      <c r="I48">
+        <f>H48-G48</f>
+        <v>-2375266.6899999976</v>
+      </c>
+      <c r="J48" s="5">
+        <f>I48/G48</f>
+        <v>-1.1928203241796942E-2</v>
+      </c>
+      <c r="K48">
         <v>39</v>
       </c>
-      <c r="B25">
-        <v>484100</v>
-      </c>
-      <c r="C25">
-        <v>479149.53</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="G25">
-        <v>505200</v>
-      </c>
-      <c r="H25">
-        <v>497194.20999999897</v>
-      </c>
-      <c r="J25" s="5"/>
-      <c r="L25">
-        <v>496500</v>
-      </c>
-      <c r="M25">
-        <v>494775.1</v>
-      </c>
-      <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26">
-        <v>5249800</v>
-      </c>
-      <c r="C26">
-        <v>4801960.08</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="G26">
-        <v>5442200</v>
-      </c>
-      <c r="H26">
-        <v>5122329.02999999</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="L26">
-        <v>5430700</v>
-      </c>
-      <c r="M26">
-        <v>5117235.21</v>
-      </c>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" t="s">
+      <c r="L48">
+        <v>199954600</v>
+      </c>
+      <c r="M48">
+        <v>199954563.74999899</v>
+      </c>
+      <c r="N48">
+        <f>M48-L48</f>
+        <v>-36.250001013278961</v>
+      </c>
+      <c r="O48" s="5">
+        <f>N48/L48</f>
+        <v>-1.8129115815929696E-7</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49">
+        <v>832600</v>
+      </c>
+      <c r="C49">
+        <v>832600</v>
+      </c>
+      <c r="D49">
+        <f>C49-B49</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <f>D49/B49</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>47</v>
+      </c>
+      <c r="G49">
+        <v>859100</v>
+      </c>
+      <c r="H49">
+        <v>859100</v>
+      </c>
+      <c r="I49">
+        <f>H49-G49</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <f>I49/G49</f>
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>48</v>
+      </c>
+      <c r="L49">
+        <v>843200</v>
+      </c>
+      <c r="M49">
+        <v>843200</v>
+      </c>
+      <c r="N49">
+        <f>M49-L49</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="5">
+        <f>N49/L49</f>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50">
+        <v>92200</v>
+      </c>
+      <c r="C50">
+        <v>90499.43</v>
+      </c>
+      <c r="D50">
+        <f>C50-B50</f>
+        <v>-1700.570000000007</v>
+      </c>
+      <c r="E50" s="5">
+        <f>D50/B50</f>
+        <v>-1.8444360086767971E-2</v>
+      </c>
+      <c r="F50">
+        <v>27</v>
+      </c>
+      <c r="G50">
+        <v>102600</v>
+      </c>
+      <c r="H50">
+        <v>95466.880000000005</v>
+      </c>
+      <c r="I50">
+        <f>H50-G50</f>
+        <v>-7133.1199999999953</v>
+      </c>
+      <c r="J50" s="5">
+        <f>I50/G50</f>
+        <v>-6.9523586744639335E-2</v>
+      </c>
+      <c r="K50">
+        <v>13</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f>M50-L50</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="5" t="e">
+        <f>N50/L50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>41</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="J27" s="5"/>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28">
-        <v>1382900</v>
-      </c>
-      <c r="C28">
-        <v>1250442.02</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="G28">
-        <v>1545700</v>
-      </c>
-      <c r="H28">
-        <v>1281335.23</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="L28">
-        <v>1525900</v>
-      </c>
-      <c r="M28">
-        <v>1393285.06</v>
-      </c>
-      <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29">
-        <v>2561800</v>
-      </c>
-      <c r="C29">
-        <v>2523884.71</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="G29">
-        <v>2779500</v>
-      </c>
-      <c r="H29">
-        <v>2665264.4399999902</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="L29">
-        <v>2889900</v>
-      </c>
-      <c r="M29">
-        <v>2889864.67</v>
-      </c>
-      <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30">
-        <v>12132200</v>
-      </c>
-      <c r="C30">
-        <v>12030494.1</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="G30">
-        <v>12735900</v>
-      </c>
-      <c r="H30">
-        <v>12685514.279999901</v>
-      </c>
-      <c r="J30" s="5"/>
-      <c r="L30">
-        <v>12861300</v>
-      </c>
-      <c r="M30">
-        <v>12826009.609999999</v>
-      </c>
-      <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31">
-        <v>1765600</v>
-      </c>
-      <c r="C31">
-        <v>1740827.69</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="G31">
-        <v>1823300</v>
-      </c>
-      <c r="H31">
-        <v>1762676.85</v>
-      </c>
-      <c r="J31" s="5"/>
-      <c r="L31">
-        <v>1870700</v>
-      </c>
-      <c r="M31">
-        <v>1801391.34</v>
-      </c>
-      <c r="O31" s="5"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32">
-        <v>5999400</v>
-      </c>
-      <c r="C32">
-        <v>5925637.7199999904</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="G32">
-        <v>6195500</v>
-      </c>
-      <c r="H32">
-        <v>6084985.4699999997</v>
-      </c>
-      <c r="J32" s="5"/>
-      <c r="L32">
-        <v>6157400</v>
-      </c>
-      <c r="M32">
-        <v>5987572.0199999996</v>
-      </c>
-      <c r="O32" s="5"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33">
-        <v>927703099.99999905</v>
-      </c>
-      <c r="C33">
-        <v>920284264.73000002</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="G33">
-        <v>979671000</v>
-      </c>
-      <c r="H33">
-        <v>977068513.48000002</v>
-      </c>
-      <c r="J33" s="5"/>
-      <c r="L33">
-        <v>989572899.99999905</v>
-      </c>
-      <c r="M33">
-        <v>984116289.40999901</v>
-      </c>
-      <c r="O33" s="5"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34">
-        <v>4189300</v>
-      </c>
-      <c r="C34">
-        <v>4109958.22</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="G34">
-        <v>4350600</v>
-      </c>
-      <c r="H34">
-        <v>4137588.7699999898</v>
-      </c>
-      <c r="J34" s="5"/>
-      <c r="L34">
-        <v>4345600</v>
-      </c>
-      <c r="M34">
-        <v>4229801.51</v>
-      </c>
-      <c r="O34" s="5"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" t="s">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <f>C51-B51</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="5" t="e">
+        <f>D51/B51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F51" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f>H51-G51</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="5" t="e">
+        <f>I51/G51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K51" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f>M51-L51</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="5" t="e">
+        <f>N51/L51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P51" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>49</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="J35" s="5"/>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="O35" s="5"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36">
-        <v>798200</v>
-      </c>
-      <c r="C36">
-        <v>735423.27999999898</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="G36">
-        <v>898700</v>
-      </c>
-      <c r="H36">
-        <v>740966.94999999902</v>
-      </c>
-      <c r="J36" s="5"/>
-      <c r="L36">
-        <v>878300</v>
-      </c>
-      <c r="M36">
-        <v>777215.28999999899</v>
-      </c>
-      <c r="O36" s="5"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37">
-        <v>2087800</v>
-      </c>
-      <c r="C37">
-        <v>2005447.73999999</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="G37">
-        <v>2229200</v>
-      </c>
-      <c r="H37">
-        <v>2118943.21</v>
-      </c>
-      <c r="J37" s="5"/>
-      <c r="L37">
-        <v>2296900</v>
-      </c>
-      <c r="M37">
-        <v>2108718.34</v>
-      </c>
-      <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38">
-        <v>855300</v>
-      </c>
-      <c r="C38">
-        <v>838669.82</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="G38">
-        <v>792800</v>
-      </c>
-      <c r="H38">
-        <v>753451.96</v>
-      </c>
-      <c r="J38" s="5"/>
-      <c r="L38">
-        <v>777800</v>
-      </c>
-      <c r="M38">
-        <v>777663.26</v>
-      </c>
-      <c r="O38" s="5"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39">
-        <v>883900</v>
-      </c>
-      <c r="C39">
-        <v>813108.87</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="G39">
-        <v>1294400</v>
-      </c>
-      <c r="H39">
-        <v>1114242.27999999</v>
-      </c>
-      <c r="J39" s="5"/>
-      <c r="L39">
-        <v>1759500</v>
-      </c>
-      <c r="M39">
-        <v>1680463.8699999901</v>
-      </c>
-      <c r="O39" s="5"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40">
-        <v>38381900</v>
-      </c>
-      <c r="C40">
-        <v>37565141.859999903</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="G40">
-        <v>39964900</v>
-      </c>
-      <c r="H40">
-        <v>38095240.189999901</v>
-      </c>
-      <c r="J40" s="5"/>
-      <c r="L40">
-        <v>40216700</v>
-      </c>
-      <c r="M40">
-        <v>39606263.709999897</v>
-      </c>
-      <c r="O40" s="5"/>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41">
-        <v>4593300</v>
-      </c>
-      <c r="C41">
-        <v>4409060.2099999897</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="G41">
-        <v>5089500</v>
-      </c>
-      <c r="H41">
-        <v>4956043.6699999897</v>
-      </c>
-      <c r="J41" s="5"/>
-      <c r="L41">
-        <v>4799900</v>
-      </c>
-      <c r="M41">
-        <v>4717822.6500000004</v>
-      </c>
-      <c r="O41" s="5"/>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42">
-        <v>188593300</v>
-      </c>
-      <c r="C42">
-        <v>188551675.67999899</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="G42">
-        <v>199130300</v>
-      </c>
-      <c r="H42">
-        <v>196755033.31</v>
-      </c>
-      <c r="J42" s="5"/>
-      <c r="L42">
-        <v>199954600</v>
-      </c>
-      <c r="M42">
-        <v>199954563.74999899</v>
-      </c>
-      <c r="O42" s="5"/>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43">
-        <v>8135400</v>
-      </c>
-      <c r="C43">
-        <v>7968645.8300000001</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="G43">
-        <v>8560800</v>
-      </c>
-      <c r="H43">
-        <v>8171472.0199999996</v>
-      </c>
-      <c r="J43" s="5"/>
-      <c r="L43">
-        <v>8497500</v>
-      </c>
-      <c r="M43">
-        <v>8150982.5699999901</v>
-      </c>
-      <c r="O43" s="5"/>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44">
-        <v>30083200</v>
-      </c>
-      <c r="C44">
-        <v>29789104.379999999</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="G44">
-        <v>31040700</v>
-      </c>
-      <c r="H44">
-        <v>30793711.48</v>
-      </c>
-      <c r="J44" s="5"/>
-      <c r="L44">
-        <v>31282200</v>
-      </c>
-      <c r="M44">
-        <v>31282141.25</v>
-      </c>
-      <c r="O44" s="5"/>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45">
-        <v>55301600</v>
-      </c>
-      <c r="C45">
-        <v>54589584.0499999</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="G45">
-        <v>56792200</v>
-      </c>
-      <c r="H45">
-        <v>54594953.959999897</v>
-      </c>
-      <c r="J45" s="5"/>
-      <c r="L45">
-        <v>56027100</v>
-      </c>
-      <c r="M45">
-        <v>55386549.6599999</v>
-      </c>
-      <c r="O45" s="5"/>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46">
-        <v>259100</v>
-      </c>
-      <c r="C46">
-        <v>258322.43</v>
-      </c>
-      <c r="E46" s="5"/>
-      <c r="G46">
-        <v>266000</v>
-      </c>
-      <c r="H46">
-        <v>257402.90999999901</v>
-      </c>
-      <c r="J46" s="5"/>
-      <c r="L46">
-        <v>267100</v>
-      </c>
-      <c r="M46">
-        <v>254753.15999999901</v>
-      </c>
-      <c r="O46" s="5"/>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47">
-        <v>70390700</v>
-      </c>
-      <c r="C47">
-        <v>70378426.719999999</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="G47">
-        <v>73467000</v>
-      </c>
-      <c r="H47">
-        <v>73442541.659999996</v>
-      </c>
-      <c r="J47" s="5"/>
-      <c r="L47">
-        <v>75072800</v>
-      </c>
-      <c r="M47">
-        <v>75050829.179999903</v>
-      </c>
-      <c r="O47" s="5"/>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48">
-        <v>6737100</v>
-      </c>
-      <c r="C48">
-        <v>6527352.5699999901</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="G48">
-        <v>7214700</v>
-      </c>
-      <c r="H48">
-        <v>6922072.5599999996</v>
-      </c>
-      <c r="J48" s="5"/>
-      <c r="L48">
-        <v>7289800</v>
-      </c>
-      <c r="M48">
-        <v>6882350.23999999</v>
-      </c>
-      <c r="O48" s="5"/>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49">
-        <v>92200</v>
-      </c>
-      <c r="C49">
-        <v>90499.43</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="G49">
-        <v>102600</v>
-      </c>
-      <c r="H49">
-        <v>95466.880000000005</v>
-      </c>
-      <c r="J49" s="5"/>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="O49" s="5"/>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50">
-        <v>832600</v>
-      </c>
-      <c r="C50">
-        <v>832600</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="G50">
-        <v>859100</v>
-      </c>
-      <c r="H50">
-        <v>859100</v>
-      </c>
-      <c r="J50" s="5"/>
-      <c r="L50">
-        <v>843200</v>
-      </c>
-      <c r="M50">
-        <v>843200</v>
-      </c>
-      <c r="O50" s="5"/>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51">
-        <v>8609500</v>
-      </c>
-      <c r="C51">
-        <v>8499425.3399999905</v>
-      </c>
-      <c r="E51" s="5"/>
-      <c r="G51">
-        <v>8925500</v>
-      </c>
-      <c r="H51">
-        <v>8599059.6199999992</v>
-      </c>
-      <c r="J51" s="5"/>
-      <c r="L51">
-        <v>8833900</v>
-      </c>
-      <c r="M51">
-        <v>8735843.3100000005</v>
-      </c>
-      <c r="O51" s="5"/>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" t="s">
-        <v>66</v>
-      </c>
       <c r="B52">
-        <v>2451000</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>2254684.7999999998</v>
-      </c>
-      <c r="E52" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f>C52-B52</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="5" t="e">
+        <f>D52/B52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" t="e">
+        <v>#DIV/0!</v>
+      </c>
       <c r="G52">
-        <v>2440700</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>2204672.88</v>
-      </c>
-      <c r="J52" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f>H52-G52</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="5" t="e">
+        <f>I52/G52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K52" t="e">
+        <v>#DIV/0!</v>
+      </c>
       <c r="L52">
-        <v>2321600</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>2056835.26</v>
-      </c>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="54" spans="1:15" ht="15">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f>M52-L52</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="5" t="e">
+        <f>N52/L52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P52" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -2591,42 +4226,114 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="B56">
+        <f>VLOOKUP(A56,A$1:D$52,4,FALSE)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C56">
+        <f>VLOOKUP(A56,A$1:I$52,9,FALSE)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D56">
+        <f>VLOOKUP(A56,A$1:N$52,14,FALSE)</f>
+        <v>-9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="B57">
+        <f t="shared" ref="B57:B61" si="1">VLOOKUP(A57,A$1:D$52,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ref="C57:C61" si="2">VLOOKUP(A57,A$1:I$52,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ref="D57:D61" si="3">VLOOKUP(A57,A$1:N$52,14,FALSE)</f>
+        <v>-311228.08999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="2"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="3"/>
+        <v>-374962.91000000015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="2"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="3"/>
+        <v>-72.879999999888241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="B60">
+        <f t="shared" si="1"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="2"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="3"/>
+        <v>-1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" ht="15">
+      <c r="B61">
+        <f t="shared" si="1"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="2"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="3"/>
+        <v>-82077.349999999627</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -2640,43 +4347,114 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15">
+      <c r="B65">
+        <f>_xlfn.XLOOKUP(A65,A$2:A$52,D$2:D$52)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C65">
+        <f>_xlfn.XLOOKUP(A65,A$1:A$52,I$1:I$52)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D65">
+        <f>_xlfn.XLOOKUP(A65,A$1:A$52,N$1:N$52)</f>
+        <v>-9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15">
+      <c r="B66">
+        <f t="shared" ref="B66:B70" si="4">_xlfn.XLOOKUP(A66,A$2:A$52,D$2:D$52)</f>
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C70" si="5">_xlfn.XLOOKUP(A66,A$1:A$52,I$1:I$52)</f>
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D70" si="6">_xlfn.XLOOKUP(A66,A$1:A$52,N$1:N$52)</f>
+        <v>-311228.08999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="B67">
+        <f t="shared" si="4"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="5"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="6"/>
+        <v>-374962.91000000015</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="B68">
+        <f t="shared" si="4"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="5"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="6"/>
+        <v>-72.879999999888241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="B69">
+        <f t="shared" si="4"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="5"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="6"/>
+        <v>-1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="15"/>
-    <row r="72" spans="1:4" ht="15">
+      <c r="B70">
+        <f t="shared" si="4"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="5"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="6"/>
+        <v>-82077.349999999627</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -2690,48 +4468,122 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="15">
+      <c r="B74">
+        <f>INDEX(D$2:D$52,MATCH(A74,A$2:A$52,FALSE))</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C74">
+        <f>INDEX(I$1:I$52,MATCH(A74,A$1:A$52,FALSE))</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D74">
+        <f>INDEX(N$1:N$52,MATCH(A74,A$1:A$52,FALSE))</f>
+        <v>-9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="B75" t="e">
+        <f t="shared" ref="B75:B79" si="7">INDEX(D3:D53,MATCH(A75,A3:A53,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ref="C75:C79" si="8">INDEX(I$1:I$52,MATCH(A75,A$1:A$52,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ref="D75:D79" si="9">INDEX(N$1:N$52,MATCH(A75,A$1:A$52,FALSE))</f>
+        <v>-311228.08999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="B76">
+        <f t="shared" si="7"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="8"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="9"/>
+        <v>-374962.91000000015</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="B77">
+        <f t="shared" si="7"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="8"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="9"/>
+        <v>-72.879999999888241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="B78">
+        <f t="shared" si="7"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="8"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="9"/>
+        <v>-1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15"/>
-    <row r="81" spans="1:7" ht="15">
+      <c r="B79">
+        <f t="shared" si="7"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="8"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="9"/>
+        <v>-82077.349999999627</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="B82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B83" s="1" t="s">
         <v>71</v>
       </c>
@@ -2739,34 +4591,51 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="B84" s="6">
+        <f>INDEX(B$2:B$52,MATCH($B$82,$A$2:$A$52,0))</f>
+        <v>798200</v>
+      </c>
+      <c r="C84" s="6">
+        <f>INDEX(C$2:C$52,MATCH($B$82,$A$2:$A$52,0))</f>
+        <v>735423.27999999898</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="B85" s="6">
+        <f>INDEX(G$2:G$52,MATCH($B$82,$A$2:$A$52,0))</f>
+        <v>898700</v>
+      </c>
+      <c r="C85" s="6">
+        <f>INDEX(H$2:H$52,MATCH($B$82,$A$2:$A$52,0))</f>
+        <v>740966.94999999902</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-    </row>
-    <row r="87" spans="1:7" ht="15"/>
-    <row r="88" spans="1:7" ht="15">
+      <c r="B86" s="6">
+        <f>INDEX(L$2:L$52,MATCH($B$82,$A$2:$A$52,0))</f>
+        <v>878300</v>
+      </c>
+      <c r="C86" s="6">
+        <f>INDEX(M$2:M$52,MATCH($B$82,$A$2:$A$52,0))</f>
+        <v>777215.28999999899</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>77</v>
       </c>
@@ -2782,7 +4651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B90" s="8" t="s">
         <v>0</v>
       </c>
@@ -2802,7 +4671,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>73</v>
       </c>
@@ -2810,7 +4679,7 @@
       <c r="E91" s="5"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>74</v>
       </c>
@@ -2818,7 +4687,7 @@
       <c r="E92" s="5"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>75</v>
       </c>
@@ -2826,12 +4695,12 @@
       <c r="E93" s="5"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="95" spans="1:7" ht="15">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>77</v>
       </c>
@@ -2847,7 +4716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B97" s="8" t="s">
         <v>0</v>
       </c>
@@ -2867,7 +4736,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>73</v>
       </c>
@@ -2876,7 +4745,7 @@
       <c r="G98" s="4"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>74</v>
       </c>
@@ -2885,7 +4754,7 @@
       <c r="G99" s="4"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>75</v>
       </c>
@@ -2894,20 +4763,20 @@
       <c r="G100" s="4"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="102" spans="1:9" ht="15"/>
-    <row r="103" spans="1:9" ht="15"/>
-    <row r="104" spans="1:9" ht="15"/>
-    <row r="105" spans="1:9" ht="15"/>
-    <row r="106" spans="1:9" ht="15"/>
-    <row r="107" spans="1:9" ht="15"/>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
       <formula1>$A$2:$A$52</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry!" error="Please select a department from the list" promptTitle="Department" prompt="Department_x000a_" sqref="B82" xr:uid="{A52A4ECC-6CFE-4DEA-923A-59A0DC3C3208}">
+      <formula1>$A$2:$A$52</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2919,13 +4788,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2933,7 +4802,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2941,7 +4810,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2949,7 +4818,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2957,7 +4826,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2965,7 +4834,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2973,7 +4842,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -2981,7 +4850,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2989,7 +4858,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2997,7 +4866,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eykin\Desktop\Eddie Documentsls\projects\lookups-budget-ekinnard23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA39AA60-3CE0-4DE1-B069-6B9C724C3BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DC3958-99E9-4B22-A3BC-C4C39F0A9D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="990" windowWidth="14400" windowHeight="8240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metro_budget" sheetId="1" r:id="rId1"/>
@@ -894,6 +894,1005 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Departmental Profit by Fiscal Year</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>metro_budget!$B$82:$B$83</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Clerk and Master - Chancery</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Budget</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>metro_budget!$A$84:$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FY17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>metro_budget!$B$84:$B$86</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1552100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1590700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1579300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36C8-4440-B4F1-1D0C20471A6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>metro_budget!$C$82:$C$83</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Clerk and Master - Chancery</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>metro_budget!$A$84:$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FY17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>metro_budget!$C$84:$C$86</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1315623.30999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1383905.98999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1337735.3199999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-36C8-4440-B4F1-1D0C20471A6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="119158751"/>
+        <c:axId val="121232063"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="119158751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121232063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121232063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119158751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C03751F-4610-97F1-7AD9-11F8D4A24DF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8C13E4EB-9A20-4320-8251-E24E5523D0D8}" name="Table2" displayName="Table2" ref="A1:P52" totalsRowShown="0">
   <autoFilter ref="A1:P52" xr:uid="{8C13E4EB-9A20-4320-8251-E24E5523D0D8}"/>
@@ -1232,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1311,11 +2310,11 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f>C2-B2</f>
+        <f t="shared" ref="D2:D33" si="0">C2-B2</f>
         <v>0</v>
       </c>
       <c r="E2" s="5" t="e">
-        <f>D2/B2</f>
+        <f t="shared" ref="E2:E33" si="1">D2/B2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F2" t="e">
@@ -1328,11 +2327,11 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <f>H2-G2</f>
+        <f t="shared" ref="I2:I33" si="2">H2-G2</f>
         <v>0</v>
       </c>
       <c r="J2" s="5" t="e">
-        <f>I2/G2</f>
+        <f t="shared" ref="J2:J33" si="3">I2/G2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K2" t="e">
@@ -1345,11 +2344,11 @@
         <v>63771.91</v>
       </c>
       <c r="N2">
-        <f>M2-L2</f>
+        <f t="shared" ref="N2:N33" si="4">M2-L2</f>
         <v>-311228.08999999997</v>
       </c>
       <c r="O2" s="5">
-        <f>N2/L2</f>
+        <f t="shared" ref="O2:O33" si="5">N2/L2</f>
         <v>-0.82994157333333329</v>
       </c>
       <c r="P2">
@@ -1368,11 +2367,11 @@
         <v>1315623.30999999</v>
       </c>
       <c r="D3">
-        <f>C3-B3</f>
+        <f t="shared" si="0"/>
         <v>-236476.69000000996</v>
       </c>
       <c r="E3" s="5">
-        <f>D3/B3</f>
+        <f t="shared" si="1"/>
         <v>-0.15235918433091292</v>
       </c>
       <c r="F3">
@@ -1385,11 +2384,11 @@
         <v>1383905.98999999</v>
       </c>
       <c r="I3">
-        <f>H3-G3</f>
+        <f t="shared" si="2"/>
         <v>-206794.01000001002</v>
       </c>
       <c r="J3" s="5">
-        <f>I3/G3</f>
+        <f t="shared" si="3"/>
         <v>-0.13000189224870184</v>
       </c>
       <c r="K3">
@@ -1402,15 +2401,15 @@
         <v>1337735.3199999901</v>
       </c>
       <c r="N3">
-        <f>M3-L3</f>
+        <f t="shared" si="4"/>
         <v>-241564.68000000995</v>
       </c>
       <c r="O3" s="5">
-        <f>N3/L3</f>
+        <f t="shared" si="5"/>
         <v>-0.15295680364719175</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P52" si="0">MATCH(O3,O$2:O$52,0)</f>
+        <f t="shared" ref="P3:P52" si="6">MATCH(O3,O$2:O$52,0)</f>
         <v>2</v>
       </c>
     </row>
@@ -1425,11 +2424,11 @@
         <v>2615303.8999999901</v>
       </c>
       <c r="D4">
-        <f>C4-B4</f>
+        <f t="shared" si="0"/>
         <v>-149396.10000000987</v>
       </c>
       <c r="E4" s="5">
-        <f>D4/B4</f>
+        <f t="shared" si="1"/>
         <v>-5.4037002206391245E-2</v>
       </c>
       <c r="F4">
@@ -1442,11 +2441,11 @@
         <v>2671745.94</v>
       </c>
       <c r="I4">
-        <f>H4-G4</f>
+        <f t="shared" si="2"/>
         <v>-189254.06000000006</v>
       </c>
       <c r="J4" s="5">
-        <f>I4/G4</f>
+        <f t="shared" si="3"/>
         <v>-6.6149619014330668E-2</v>
       </c>
       <c r="K4">
@@ -1459,15 +2458,15 @@
         <v>2535637.09</v>
       </c>
       <c r="N4">
-        <f>M4-L4</f>
+        <f t="shared" si="4"/>
         <v>-374962.91000000015</v>
       </c>
       <c r="O4" s="5">
-        <f>N4/L4</f>
+        <f t="shared" si="5"/>
         <v>-0.12882667147667154</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -1482,11 +2481,11 @@
         <v>2946071.21</v>
       </c>
       <c r="D5">
-        <f>C5-B5</f>
+        <f t="shared" si="0"/>
         <v>-382928.79000000004</v>
       </c>
       <c r="E5" s="5">
-        <f>D5/B5</f>
+        <f t="shared" si="1"/>
         <v>-0.11502817362571344</v>
       </c>
       <c r="F5">
@@ -1499,11 +2498,11 @@
         <v>3051483.41</v>
       </c>
       <c r="I5">
-        <f>H5-G5</f>
+        <f t="shared" si="2"/>
         <v>-339416.58999999985</v>
       </c>
       <c r="J5" s="5">
-        <f>I5/G5</f>
+        <f t="shared" si="3"/>
         <v>-0.10009631366303927</v>
       </c>
       <c r="K5">
@@ -1516,15 +2515,15 @@
         <v>2946440.08</v>
       </c>
       <c r="N5">
-        <f>M5-L5</f>
+        <f t="shared" si="4"/>
         <v>-398759.91999999993</v>
       </c>
       <c r="O5" s="5">
-        <f>N5/L5</f>
+        <f t="shared" si="5"/>
         <v>-0.11920361114432618</v>
       </c>
       <c r="P5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -1539,11 +2538,11 @@
         <v>735423.27999999898</v>
       </c>
       <c r="D6">
-        <f>C6-B6</f>
+        <f t="shared" si="0"/>
         <v>-62776.72000000102</v>
       </c>
       <c r="E6" s="5">
-        <f>D6/B6</f>
+        <f t="shared" si="1"/>
         <v>-7.8647857679780775E-2</v>
       </c>
       <c r="F6">
@@ -1556,11 +2555,11 @@
         <v>740966.94999999902</v>
       </c>
       <c r="I6">
-        <f>H6-G6</f>
+        <f t="shared" si="2"/>
         <v>-157733.05000000098</v>
       </c>
       <c r="J6" s="5">
-        <f>I6/G6</f>
+        <f t="shared" si="3"/>
         <v>-0.17551246244575608</v>
       </c>
       <c r="K6">
@@ -1573,15 +2572,15 @@
         <v>777215.28999999899</v>
       </c>
       <c r="N6">
-        <f>M6-L6</f>
+        <f t="shared" si="4"/>
         <v>-101084.71000000101</v>
       </c>
       <c r="O6" s="5">
-        <f>N6/L6</f>
+        <f t="shared" si="5"/>
         <v>-0.11509132414892521</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -1596,11 +2595,11 @@
         <v>2254684.7999999998</v>
       </c>
       <c r="D7">
-        <f>C7-B7</f>
+        <f t="shared" si="0"/>
         <v>-196315.20000000019</v>
       </c>
       <c r="E7" s="5">
-        <f>D7/B7</f>
+        <f t="shared" si="1"/>
         <v>-8.009596083231342E-2</v>
       </c>
       <c r="F7">
@@ -1613,11 +2612,11 @@
         <v>2204672.88</v>
       </c>
       <c r="I7">
-        <f>H7-G7</f>
+        <f t="shared" si="2"/>
         <v>-236027.12000000011</v>
       </c>
       <c r="J7" s="5">
-        <f>I7/G7</f>
+        <f t="shared" si="3"/>
         <v>-9.6704683082722218E-2</v>
       </c>
       <c r="K7">
@@ -1630,15 +2629,15 @@
         <v>2056835.26</v>
       </c>
       <c r="N7">
-        <f>M7-L7</f>
+        <f t="shared" si="4"/>
         <v>-264764.74</v>
       </c>
       <c r="O7" s="5">
-        <f>N7/L7</f>
+        <f t="shared" si="5"/>
         <v>-0.11404408166781529</v>
       </c>
       <c r="P7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -1653,11 +2652,11 @@
         <v>1250442.02</v>
       </c>
       <c r="D8">
-        <f>C8-B8</f>
+        <f t="shared" si="0"/>
         <v>-132457.97999999998</v>
       </c>
       <c r="E8" s="5">
-        <f>D8/B8</f>
+        <f t="shared" si="1"/>
         <v>-9.5782760864849215E-2</v>
       </c>
       <c r="F8">
@@ -1670,11 +2669,11 @@
         <v>1281335.23</v>
       </c>
       <c r="I8">
-        <f>H8-G8</f>
+        <f t="shared" si="2"/>
         <v>-264364.77</v>
       </c>
       <c r="J8" s="5">
-        <f>I8/G8</f>
+        <f t="shared" si="3"/>
         <v>-0.17103239309050916</v>
       </c>
       <c r="K8">
@@ -1687,15 +2686,15 @@
         <v>1393285.06</v>
       </c>
       <c r="N8">
-        <f>M8-L8</f>
+        <f t="shared" si="4"/>
         <v>-132614.93999999994</v>
       </c>
       <c r="O8" s="5">
-        <f>N8/L8</f>
+        <f t="shared" si="5"/>
         <v>-8.6909325643882263E-2</v>
       </c>
       <c r="P8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
@@ -1710,11 +2709,11 @@
         <v>2005447.73999999</v>
       </c>
       <c r="D9">
-        <f>C9-B9</f>
+        <f t="shared" si="0"/>
         <v>-82352.260000010021</v>
       </c>
       <c r="E9" s="5">
-        <f>D9/B9</f>
+        <f t="shared" si="1"/>
         <v>-3.9444515758219188E-2</v>
       </c>
       <c r="F9">
@@ -1727,11 +2726,11 @@
         <v>2118943.21</v>
       </c>
       <c r="I9">
-        <f>H9-G9</f>
+        <f t="shared" si="2"/>
         <v>-110256.79000000004</v>
       </c>
       <c r="J9" s="5">
-        <f>I9/G9</f>
+        <f t="shared" si="3"/>
         <v>-4.9460250314014013E-2</v>
       </c>
       <c r="K9">
@@ -1744,15 +2743,15 @@
         <v>2108718.34</v>
       </c>
       <c r="N9">
-        <f>M9-L9</f>
+        <f t="shared" si="4"/>
         <v>-188181.66000000015</v>
       </c>
       <c r="O9" s="5">
-        <f>N9/L9</f>
+        <f t="shared" si="5"/>
         <v>-8.1928538464887526E-2</v>
       </c>
       <c r="P9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -1767,11 +2766,11 @@
         <v>8952825.2799999993</v>
       </c>
       <c r="D10">
-        <f>C10-B10</f>
+        <f t="shared" si="0"/>
         <v>-396574.72000000067</v>
       </c>
       <c r="E10" s="5">
-        <f>D10/B10</f>
+        <f t="shared" si="1"/>
         <v>-4.2417130511048909E-2</v>
       </c>
       <c r="F10">
@@ -1784,11 +2783,11 @@
         <v>9929059.5199999996</v>
       </c>
       <c r="I10">
-        <f>H10-G10</f>
+        <f t="shared" si="2"/>
         <v>-1144640.4800000004</v>
       </c>
       <c r="J10" s="5">
-        <f>I10/G10</f>
+        <f t="shared" si="3"/>
         <v>-0.10336567542917005</v>
       </c>
       <c r="K10">
@@ -1801,15 +2800,15 @@
         <v>9993599.52999999</v>
       </c>
       <c r="N10">
-        <f>M10-L10</f>
+        <f t="shared" si="4"/>
         <v>-796900.47000000998</v>
       </c>
       <c r="O10" s="5">
-        <f>N10/L10</f>
+        <f t="shared" si="5"/>
         <v>-7.3852043000788653E-2</v>
       </c>
       <c r="P10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
@@ -1824,11 +2823,11 @@
         <v>4066595.33</v>
       </c>
       <c r="D11">
-        <f>C11-B11</f>
+        <f t="shared" si="0"/>
         <v>-214304.66999999993</v>
       </c>
       <c r="E11" s="5">
-        <f>D11/B11</f>
+        <f t="shared" si="1"/>
         <v>-5.0060657805601608E-2</v>
       </c>
       <c r="F11">
@@ -1841,11 +2840,11 @@
         <v>4205555.5999999996</v>
       </c>
       <c r="I11">
-        <f>H11-G11</f>
+        <f t="shared" si="2"/>
         <v>-494844.40000000037</v>
       </c>
       <c r="J11" s="5">
-        <f>I11/G11</f>
+        <f t="shared" si="3"/>
         <v>-0.10527708280146378</v>
       </c>
       <c r="K11">
@@ -1858,15 +2857,15 @@
         <v>4371713.1399999997</v>
       </c>
       <c r="N11">
-        <f>M11-L11</f>
+        <f t="shared" si="4"/>
         <v>-306086.86000000034</v>
       </c>
       <c r="O11" s="5">
-        <f>N11/L11</f>
+        <f t="shared" si="5"/>
         <v>-6.5433934755654441E-2</v>
       </c>
       <c r="P11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -1881,11 +2880,11 @@
         <v>14439480.050000001</v>
       </c>
       <c r="D12">
-        <f>C12-B12</f>
+        <f t="shared" si="0"/>
         <v>-421319.94999999925</v>
       </c>
       <c r="E12" s="5">
-        <f>D12/B12</f>
+        <f t="shared" si="1"/>
         <v>-2.8351094826658003E-2</v>
       </c>
       <c r="F12">
@@ -1898,11 +2897,11 @@
         <v>14645233.51</v>
       </c>
       <c r="I12">
-        <f>H12-G12</f>
+        <f t="shared" si="2"/>
         <v>-664466.49000000022</v>
       </c>
       <c r="J12" s="5">
-        <f>I12/G12</f>
+        <f t="shared" si="3"/>
         <v>-4.3401666263871937E-2</v>
       </c>
       <c r="K12">
@@ -1915,15 +2914,15 @@
         <v>14346057.039999999</v>
       </c>
       <c r="N12">
-        <f>M12-L12</f>
+        <f t="shared" si="4"/>
         <v>-965742.96000000089</v>
       </c>
       <c r="O12" s="5">
-        <f>N12/L12</f>
+        <f t="shared" si="5"/>
         <v>-6.3071811282801551E-2</v>
       </c>
       <c r="P12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
@@ -1938,11 +2937,11 @@
         <v>8460963.1999999899</v>
       </c>
       <c r="D13">
-        <f>C13-B13</f>
+        <f t="shared" si="0"/>
         <v>-376336.80000001006</v>
       </c>
       <c r="E13" s="5">
-        <f>D13/B13</f>
+        <f t="shared" si="1"/>
         <v>-4.258504294298146E-2</v>
       </c>
       <c r="F13">
@@ -1955,11 +2954,11 @@
         <v>8991707.2399999909</v>
       </c>
       <c r="I13">
-        <f>H13-G13</f>
+        <f t="shared" si="2"/>
         <v>-721592.76000000909</v>
       </c>
       <c r="J13" s="5">
-        <f>I13/G13</f>
+        <f t="shared" si="3"/>
         <v>-7.4289145810384635E-2</v>
       </c>
       <c r="K13">
@@ -1972,15 +2971,15 @@
         <v>8766655.9100000001</v>
       </c>
       <c r="N13">
-        <f>M13-L13</f>
+        <f t="shared" si="4"/>
         <v>-576344.08999999985</v>
       </c>
       <c r="O13" s="5">
-        <f>N13/L13</f>
+        <f t="shared" si="5"/>
         <v>-6.1687262121374278E-2</v>
       </c>
       <c r="P13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1995,11 +2994,11 @@
         <v>4801960.08</v>
       </c>
       <c r="D14">
-        <f>C14-B14</f>
+        <f t="shared" si="0"/>
         <v>-447839.91999999993</v>
       </c>
       <c r="E14" s="5">
-        <f>D14/B14</f>
+        <f t="shared" si="1"/>
         <v>-8.5306091660634673E-2</v>
       </c>
       <c r="F14">
@@ -2012,11 +3011,11 @@
         <v>5122329.02999999</v>
       </c>
       <c r="I14">
-        <f>H14-G14</f>
+        <f t="shared" si="2"/>
         <v>-319870.97000000998</v>
       </c>
       <c r="J14" s="5">
-        <f>I14/G14</f>
+        <f t="shared" si="3"/>
         <v>-5.8776040939327839E-2</v>
       </c>
       <c r="K14">
@@ -2029,15 +3028,15 @@
         <v>5117235.21</v>
       </c>
       <c r="N14">
-        <f>M14-L14</f>
+        <f t="shared" si="4"/>
         <v>-313464.79000000004</v>
       </c>
       <c r="O14" s="5">
-        <f>N14/L14</f>
+        <f t="shared" si="5"/>
         <v>-5.7720881286022069E-2</v>
       </c>
       <c r="P14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
     </row>
@@ -2052,11 +3051,11 @@
         <v>341243679.13</v>
       </c>
       <c r="D15">
-        <f>C15-B15</f>
+        <f t="shared" si="0"/>
         <v>-15396420.870000005</v>
       </c>
       <c r="E15" s="5">
-        <f>D15/B15</f>
+        <f t="shared" si="1"/>
         <v>-4.3170750765267295E-2</v>
       </c>
       <c r="F15">
@@ -2069,11 +3068,11 @@
         <v>346340810.81999999</v>
       </c>
       <c r="I15">
-        <f>H15-G15</f>
+        <f t="shared" si="2"/>
         <v>-36344389.180000007</v>
       </c>
       <c r="J15" s="5">
-        <f>I15/G15</f>
+        <f t="shared" si="3"/>
         <v>-9.4972027086493035E-2</v>
       </c>
       <c r="K15">
@@ -2086,15 +3085,15 @@
         <v>355279492.22999901</v>
       </c>
       <c r="N15">
-        <f>M15-L15</f>
+        <f t="shared" si="4"/>
         <v>-21269107.770000994</v>
       </c>
       <c r="O15" s="5">
-        <f>N15/L15</f>
+        <f t="shared" si="5"/>
         <v>-5.6484362894991494E-2</v>
       </c>
       <c r="P15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -2109,11 +3108,11 @@
         <v>6527352.5699999901</v>
       </c>
       <c r="D16">
-        <f>C16-B16</f>
+        <f t="shared" si="0"/>
         <v>-209747.43000000995</v>
       </c>
       <c r="E16" s="5">
-        <f>D16/B16</f>
+        <f t="shared" si="1"/>
         <v>-3.1133192323107857E-2</v>
       </c>
       <c r="F16">
@@ -2126,11 +3125,11 @@
         <v>6922072.5599999996</v>
       </c>
       <c r="I16">
-        <f>H16-G16</f>
+        <f t="shared" si="2"/>
         <v>-292627.44000000041</v>
       </c>
       <c r="J16" s="5">
-        <f>I16/G16</f>
+        <f t="shared" si="3"/>
         <v>-4.0559890224125802E-2</v>
       </c>
       <c r="K16">
@@ -2143,15 +3142,15 @@
         <v>6882350.23999999</v>
       </c>
       <c r="N16">
-        <f>M16-L16</f>
+        <f t="shared" si="4"/>
         <v>-407449.76000001002</v>
       </c>
       <c r="O16" s="5">
-        <f>N16/L16</f>
+        <f t="shared" si="5"/>
         <v>-5.5893132870587676E-2</v>
       </c>
       <c r="P16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
@@ -2166,11 +3165,11 @@
         <v>258322.43</v>
       </c>
       <c r="D17">
-        <f>C17-B17</f>
+        <f t="shared" si="0"/>
         <v>-777.57000000000698</v>
       </c>
       <c r="E17" s="5">
-        <f>D17/B17</f>
+        <f t="shared" si="1"/>
         <v>-3.0010420686993711E-3</v>
       </c>
       <c r="F17">
@@ -2183,11 +3182,11 @@
         <v>257402.90999999901</v>
       </c>
       <c r="I17">
-        <f>H17-G17</f>
+        <f t="shared" si="2"/>
         <v>-8597.090000000986</v>
       </c>
       <c r="J17" s="5">
-        <f>I17/G17</f>
+        <f t="shared" si="3"/>
         <v>-3.2319887218048821E-2</v>
       </c>
       <c r="K17">
@@ -2200,15 +3199,15 @@
         <v>254753.15999999901</v>
       </c>
       <c r="N17">
-        <f>M17-L17</f>
+        <f t="shared" si="4"/>
         <v>-12346.840000000986</v>
       </c>
       <c r="O17" s="5">
-        <f>N17/L17</f>
+        <f t="shared" si="5"/>
         <v>-4.6225533508053113E-2</v>
       </c>
       <c r="P17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
@@ -2223,11 +3222,11 @@
         <v>813108.87</v>
       </c>
       <c r="D18">
-        <f>C18-B18</f>
+        <f t="shared" si="0"/>
         <v>-70791.13</v>
       </c>
       <c r="E18" s="5">
-        <f>D18/B18</f>
+        <f t="shared" si="1"/>
         <v>-8.008952370177623E-2</v>
       </c>
       <c r="F18">
@@ -2240,11 +3239,11 @@
         <v>1114242.27999999</v>
       </c>
       <c r="I18">
-        <f>H18-G18</f>
+        <f t="shared" si="2"/>
         <v>-180157.72000000998</v>
       </c>
       <c r="J18" s="5">
-        <f>I18/G18</f>
+        <f t="shared" si="3"/>
         <v>-0.13918241656366656</v>
       </c>
       <c r="K18">
@@ -2257,15 +3256,15 @@
         <v>1680463.8699999901</v>
       </c>
       <c r="N18">
-        <f>M18-L18</f>
+        <f t="shared" si="4"/>
         <v>-79036.1300000099</v>
       </c>
       <c r="O18" s="5">
-        <f>N18/L18</f>
+        <f t="shared" si="5"/>
         <v>-4.4919653310605226E-2</v>
       </c>
       <c r="P18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
     </row>
@@ -2280,11 +3279,11 @@
         <v>7968645.8300000001</v>
       </c>
       <c r="D19">
-        <f>C19-B19</f>
+        <f t="shared" si="0"/>
         <v>-166754.16999999993</v>
       </c>
       <c r="E19" s="5">
-        <f>D19/B19</f>
+        <f t="shared" si="1"/>
         <v>-2.0497353541313264E-2</v>
       </c>
       <c r="F19">
@@ -2297,11 +3296,11 @@
         <v>8171472.0199999996</v>
       </c>
       <c r="I19">
-        <f>H19-G19</f>
+        <f t="shared" si="2"/>
         <v>-389327.98000000045</v>
       </c>
       <c r="J19" s="5">
-        <f>I19/G19</f>
+        <f t="shared" si="3"/>
         <v>-4.5477990374731388E-2</v>
       </c>
       <c r="K19">
@@ -2314,15 +3313,15 @@
         <v>8150982.5699999901</v>
       </c>
       <c r="N19">
-        <f>M19-L19</f>
+        <f t="shared" si="4"/>
         <v>-346517.43000000995</v>
       </c>
       <c r="O19" s="5">
-        <f>N19/L19</f>
+        <f t="shared" si="5"/>
         <v>-4.0778750220654303E-2</v>
       </c>
       <c r="P19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -2337,11 +3336,11 @@
         <v>505017.37</v>
       </c>
       <c r="D20">
-        <f>C20-B20</f>
+        <f t="shared" si="0"/>
         <v>-6982.6300000000047</v>
       </c>
       <c r="E20" s="5">
-        <f>D20/B20</f>
+        <f t="shared" si="1"/>
         <v>-1.3637949218750009E-2</v>
       </c>
       <c r="F20">
@@ -2354,11 +3353,11 @@
         <v>524402.98</v>
       </c>
       <c r="I20">
-        <f>H20-G20</f>
+        <f t="shared" si="2"/>
         <v>-6097.0200000000186</v>
       </c>
       <c r="J20" s="5">
-        <f>I20/G20</f>
+        <f t="shared" si="3"/>
         <v>-1.1492968897266765E-2</v>
       </c>
       <c r="K20">
@@ -2371,15 +3370,15 @@
         <v>504989.88</v>
       </c>
       <c r="N20">
-        <f>M20-L20</f>
+        <f t="shared" si="4"/>
         <v>-21210.119999999995</v>
       </c>
       <c r="O20" s="5">
-        <f>N20/L20</f>
+        <f t="shared" si="5"/>
         <v>-4.0308095781071827E-2</v>
       </c>
       <c r="P20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
@@ -2394,11 +3393,11 @@
         <v>1740827.69</v>
       </c>
       <c r="D21">
-        <f>C21-B21</f>
+        <f t="shared" si="0"/>
         <v>-24772.310000000056</v>
       </c>
       <c r="E21" s="5">
-        <f>D21/B21</f>
+        <f t="shared" si="1"/>
         <v>-1.4030533529678329E-2</v>
       </c>
       <c r="F21">
@@ -2411,11 +3410,11 @@
         <v>1762676.85</v>
       </c>
       <c r="I21">
-        <f>H21-G21</f>
+        <f t="shared" si="2"/>
         <v>-60623.149999999907</v>
       </c>
       <c r="J21" s="5">
-        <f>I21/G21</f>
+        <f t="shared" si="3"/>
         <v>-3.3249136181648611E-2</v>
       </c>
       <c r="K21">
@@ -2428,15 +3427,15 @@
         <v>1801391.34</v>
       </c>
       <c r="N21">
-        <f>M21-L21</f>
+        <f t="shared" si="4"/>
         <v>-69308.659999999916</v>
       </c>
       <c r="O21" s="5">
-        <f>N21/L21</f>
+        <f t="shared" si="5"/>
         <v>-3.7049585716576634E-2</v>
       </c>
       <c r="P21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -2451,11 +3450,11 @@
         <v>22408587.5499999</v>
       </c>
       <c r="D22">
-        <f>C22-B22</f>
+        <f t="shared" si="0"/>
         <v>-1923512.4500000998</v>
       </c>
       <c r="E22" s="5">
-        <f>D22/B22</f>
+        <f t="shared" si="1"/>
         <v>-7.9052463618023094E-2</v>
       </c>
       <c r="F22">
@@ -2468,11 +3467,11 @@
         <v>22655993.629999999</v>
       </c>
       <c r="I22">
-        <f>H22-G22</f>
+        <f t="shared" si="2"/>
         <v>-1841406.370000001</v>
       </c>
       <c r="J22" s="5">
-        <f>I22/G22</f>
+        <f t="shared" si="3"/>
         <v>-7.5167420624229556E-2</v>
       </c>
       <c r="K22">
@@ -2485,15 +3484,15 @@
         <v>23434073.089999899</v>
       </c>
       <c r="N22">
-        <f>M22-L22</f>
+        <f t="shared" si="4"/>
         <v>-888926.91000010073</v>
       </c>
       <c r="O22" s="5">
-        <f>N22/L22</f>
+        <f t="shared" si="5"/>
         <v>-3.6546762734864152E-2</v>
       </c>
       <c r="P22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
     </row>
@@ -2508,11 +3507,11 @@
         <v>6947552.6699999999</v>
       </c>
       <c r="D23">
-        <f>C23-B23</f>
+        <f t="shared" si="0"/>
         <v>-723147.33000000007</v>
       </c>
       <c r="E23" s="5">
-        <f>D23/B23</f>
+        <f t="shared" si="1"/>
         <v>-9.4273968477453174E-2</v>
       </c>
       <c r="F23">
@@ -2525,11 +3524,11 @@
         <v>7020609.3200000003</v>
       </c>
       <c r="I23">
-        <f>H23-G23</f>
+        <f t="shared" si="2"/>
         <v>-947690.6799999997</v>
       </c>
       <c r="J23" s="5">
-        <f>I23/G23</f>
+        <f t="shared" si="3"/>
         <v>-0.118932605449092</v>
       </c>
       <c r="K23">
@@ -2542,15 +3541,15 @@
         <v>7497322.9100000001</v>
       </c>
       <c r="N23">
-        <f>M23-L23</f>
+        <f t="shared" si="4"/>
         <v>-262277.08999999985</v>
       </c>
       <c r="O23" s="5">
-        <f>N23/L23</f>
+        <f t="shared" si="5"/>
         <v>-3.3800336357544182E-2</v>
       </c>
       <c r="P23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
     </row>
@@ -2565,11 +3564,11 @@
         <v>5925637.7199999904</v>
       </c>
       <c r="D24">
-        <f>C24-B24</f>
+        <f t="shared" si="0"/>
         <v>-73762.280000009574</v>
       </c>
       <c r="E24" s="5">
-        <f>D24/B24</f>
+        <f t="shared" si="1"/>
         <v>-1.2294942827617691E-2</v>
       </c>
       <c r="F24">
@@ -2582,11 +3581,11 @@
         <v>6084985.4699999997</v>
       </c>
       <c r="I24">
-        <f>H24-G24</f>
+        <f t="shared" si="2"/>
         <v>-110514.53000000026</v>
       </c>
       <c r="J24" s="5">
-        <f>I24/G24</f>
+        <f t="shared" si="3"/>
         <v>-1.7837871035428981E-2</v>
       </c>
       <c r="K24">
@@ -2599,15 +3598,15 @@
         <v>5987572.0199999996</v>
       </c>
       <c r="N24">
-        <f>M24-L24</f>
+        <f t="shared" si="4"/>
         <v>-169827.98000000045</v>
       </c>
       <c r="O24" s="5">
-        <f>N24/L24</f>
+        <f t="shared" si="5"/>
         <v>-2.7581118653977402E-2</v>
       </c>
       <c r="P24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
     </row>
@@ -2622,11 +3621,11 @@
         <v>4109958.22</v>
       </c>
       <c r="D25">
-        <f>C25-B25</f>
+        <f t="shared" si="0"/>
         <v>-79341.779999999795</v>
       </c>
       <c r="E25" s="5">
-        <f>D25/B25</f>
+        <f t="shared" si="1"/>
         <v>-1.8939149738619768E-2</v>
       </c>
       <c r="F25">
@@ -2639,11 +3638,11 @@
         <v>4137588.7699999898</v>
       </c>
       <c r="I25">
-        <f>H25-G25</f>
+        <f t="shared" si="2"/>
         <v>-213011.23000001023</v>
       </c>
       <c r="J25" s="5">
-        <f>I25/G25</f>
+        <f t="shared" si="3"/>
         <v>-4.8961345561534093E-2</v>
       </c>
       <c r="K25">
@@ -2656,15 +3655,15 @@
         <v>4229801.51</v>
       </c>
       <c r="N25">
-        <f>M25-L25</f>
+        <f t="shared" si="4"/>
         <v>-115798.49000000022</v>
       </c>
       <c r="O25" s="5">
-        <f>N25/L25</f>
+        <f t="shared" si="5"/>
         <v>-2.6647296115611244E-2</v>
       </c>
       <c r="P25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
     </row>
@@ -2679,11 +3678,11 @@
         <v>3115157.5599999898</v>
       </c>
       <c r="D26">
-        <f>C26-B26</f>
+        <f t="shared" si="0"/>
         <v>-15442.440000010189</v>
       </c>
       <c r="E26" s="5">
-        <f>D26/B26</f>
+        <f t="shared" si="1"/>
         <v>-4.9327413275443007E-3</v>
       </c>
       <c r="F26">
@@ -2696,11 +3695,11 @@
         <v>3589693.2099999902</v>
       </c>
       <c r="I26">
-        <f>H26-G26</f>
+        <f t="shared" si="2"/>
         <v>-62606.790000009816</v>
       </c>
       <c r="J26" s="5">
-        <f>I26/G26</f>
+        <f t="shared" si="3"/>
         <v>-1.7141743558856015E-2</v>
       </c>
       <c r="K26">
@@ -2713,15 +3712,15 @@
         <v>3564983.04999999</v>
       </c>
       <c r="N26">
-        <f>M26-L26</f>
+        <f t="shared" si="4"/>
         <v>-97416.950000009965</v>
       </c>
       <c r="O26" s="5">
-        <f>N26/L26</f>
+        <f t="shared" si="5"/>
         <v>-2.6599210899959033E-2</v>
       </c>
       <c r="P26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
@@ -2736,11 +3735,11 @@
         <v>20036743.4099999</v>
       </c>
       <c r="D27">
-        <f>C27-B27</f>
+        <f t="shared" si="0"/>
         <v>-825956.59000010043</v>
       </c>
       <c r="E27" s="5">
-        <f>D27/B27</f>
+        <f t="shared" si="1"/>
         <v>-3.9590110100806722E-2</v>
       </c>
       <c r="F27">
@@ -2753,11 +3752,11 @@
         <v>21722126.219999898</v>
       </c>
       <c r="I27">
-        <f>H27-G27</f>
+        <f t="shared" si="2"/>
         <v>-961673.78000010177</v>
       </c>
       <c r="J27" s="5">
-        <f>I27/G27</f>
+        <f t="shared" si="3"/>
         <v>-4.2394738976719144E-2</v>
       </c>
       <c r="K27">
@@ -2770,15 +3769,15 @@
         <v>22619057.440000001</v>
       </c>
       <c r="N27">
-        <f>M27-L27</f>
+        <f t="shared" si="4"/>
         <v>-601242.55999999866</v>
       </c>
       <c r="O27" s="5">
-        <f>N27/L27</f>
+        <f t="shared" si="5"/>
         <v>-2.5892971236375011E-2</v>
       </c>
       <c r="P27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
     </row>
@@ -2793,11 +3792,11 @@
         <v>5772288.3300000001</v>
       </c>
       <c r="D28">
-        <f>C28-B28</f>
+        <f t="shared" si="0"/>
         <v>-75511.669999999925</v>
       </c>
       <c r="E28" s="5">
-        <f>D28/B28</f>
+        <f t="shared" si="1"/>
         <v>-1.2912833886247806E-2</v>
       </c>
       <c r="F28">
@@ -2810,11 +3809,11 @@
         <v>5909077.9399999902</v>
       </c>
       <c r="I28">
-        <f>H28-G28</f>
+        <f t="shared" si="2"/>
         <v>-314622.06000000983</v>
       </c>
       <c r="J28" s="5">
-        <f>I28/G28</f>
+        <f t="shared" si="3"/>
         <v>-5.0552253482656594E-2</v>
       </c>
       <c r="K28">
@@ -2827,15 +3826,15 @@
         <v>6056976.6699999999</v>
       </c>
       <c r="N28">
-        <f>M28-L28</f>
+        <f t="shared" si="4"/>
         <v>-150323.33000000007</v>
       </c>
       <c r="O28" s="5">
-        <f>N28/L28</f>
+        <f t="shared" si="5"/>
         <v>-2.4217184605222895E-2</v>
       </c>
       <c r="P28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
     </row>
@@ -2850,11 +3849,11 @@
         <v>156545919.90000001</v>
       </c>
       <c r="D29">
-        <f>C29-B29</f>
+        <f t="shared" si="0"/>
         <v>496819.90000000596</v>
       </c>
       <c r="E29" s="5">
-        <f>D29/B29</f>
+        <f t="shared" si="1"/>
         <v>3.1837408866824991E-3</v>
       </c>
       <c r="F29">
@@ -2867,11 +3866,11 @@
         <v>175966389.24999899</v>
       </c>
       <c r="I29">
-        <f>H29-G29</f>
+        <f t="shared" si="2"/>
         <v>-8201410.7500010133</v>
       </c>
       <c r="J29" s="5">
-        <f>I29/G29</f>
+        <f t="shared" si="3"/>
         <v>-4.4532273014072019E-2</v>
       </c>
       <c r="K29">
@@ -2884,15 +3883,15 @@
         <v>184450910.84999901</v>
       </c>
       <c r="N29">
-        <f>M29-L29</f>
+        <f t="shared" si="4"/>
         <v>-4502589.1500009894</v>
       </c>
       <c r="O29" s="5">
-        <f>N29/L29</f>
+        <f t="shared" si="5"/>
         <v>-2.3829085727446114E-2</v>
       </c>
       <c r="P29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
     </row>
@@ -2907,11 +3906,11 @@
         <v>407090.37</v>
       </c>
       <c r="D30">
-        <f>C30-B30</f>
+        <f t="shared" si="0"/>
         <v>-36209.630000000005</v>
       </c>
       <c r="E30" s="5">
-        <f>D30/B30</f>
+        <f t="shared" si="1"/>
         <v>-8.1681998646514792E-2</v>
       </c>
       <c r="F30">
@@ -2924,11 +3923,11 @@
         <v>467907.84000000003</v>
       </c>
       <c r="I30">
-        <f>H30-G30</f>
+        <f t="shared" si="2"/>
         <v>-27292.159999999974</v>
       </c>
       <c r="J30" s="5">
-        <f>I30/G30</f>
+        <f t="shared" si="3"/>
         <v>-5.5113408723747932E-2</v>
       </c>
       <c r="K30">
@@ -2941,15 +3940,15 @@
         <v>478318.92</v>
       </c>
       <c r="N30">
-        <f>M30-L30</f>
+        <f t="shared" si="4"/>
         <v>-9181.0800000000163</v>
       </c>
       <c r="O30" s="5">
-        <f>N30/L30</f>
+        <f t="shared" si="5"/>
         <v>-1.883298461538465E-2</v>
       </c>
       <c r="P30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
     </row>
@@ -2964,11 +3963,11 @@
         <v>4409060.2099999897</v>
       </c>
       <c r="D31">
-        <f>C31-B31</f>
+        <f t="shared" si="0"/>
         <v>-184239.79000001028</v>
       </c>
       <c r="E31" s="5">
-        <f>D31/B31</f>
+        <f t="shared" si="1"/>
         <v>-4.0110550149132493E-2</v>
       </c>
       <c r="F31">
@@ -2981,11 +3980,11 @@
         <v>4956043.6699999897</v>
       </c>
       <c r="I31">
-        <f>H31-G31</f>
+        <f t="shared" si="2"/>
         <v>-133456.33000001032</v>
       </c>
       <c r="J31" s="5">
-        <f>I31/G31</f>
+        <f t="shared" si="3"/>
         <v>-2.6221894095689226E-2</v>
       </c>
       <c r="K31">
@@ -2998,15 +3997,15 @@
         <v>4717822.6500000004</v>
       </c>
       <c r="N31">
-        <f>M31-L31</f>
+        <f t="shared" si="4"/>
         <v>-82077.349999999627</v>
       </c>
       <c r="O31" s="5">
-        <f>N31/L31</f>
+        <f t="shared" si="5"/>
         <v>-1.7099804162586642E-2</v>
       </c>
       <c r="P31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
@@ -3021,11 +4020,11 @@
         <v>37565141.859999903</v>
       </c>
       <c r="D32">
-        <f>C32-B32</f>
+        <f t="shared" si="0"/>
         <v>-816758.14000009745</v>
       </c>
       <c r="E32" s="5">
-        <f>D32/B32</f>
+        <f t="shared" si="1"/>
         <v>-2.1279773539092578E-2</v>
       </c>
       <c r="F32">
@@ -3038,11 +4037,11 @@
         <v>38095240.189999901</v>
       </c>
       <c r="I32">
-        <f>H32-G32</f>
+        <f t="shared" si="2"/>
         <v>-1869659.8100000992</v>
       </c>
       <c r="J32" s="5">
-        <f>I32/G32</f>
+        <f t="shared" si="3"/>
         <v>-4.6782546934937892E-2</v>
       </c>
       <c r="K32">
@@ -3055,15 +4054,15 @@
         <v>39606263.709999897</v>
       </c>
       <c r="N32">
-        <f>M32-L32</f>
+        <f t="shared" si="4"/>
         <v>-610436.29000010341</v>
       </c>
       <c r="O32" s="5">
-        <f>N32/L32</f>
+        <f t="shared" si="5"/>
         <v>-1.5178676768608648E-2</v>
       </c>
       <c r="P32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
     </row>
@@ -3078,11 +4077,11 @@
         <v>54589584.0499999</v>
       </c>
       <c r="D33">
-        <f>C33-B33</f>
+        <f t="shared" si="0"/>
         <v>-712015.95000009984</v>
       </c>
       <c r="E33" s="5">
-        <f>D33/B33</f>
+        <f t="shared" si="1"/>
         <v>-1.287514194887851E-2</v>
       </c>
       <c r="F33">
@@ -3095,11 +4094,11 @@
         <v>54594953.959999897</v>
       </c>
       <c r="I33">
-        <f>H33-G33</f>
+        <f t="shared" si="2"/>
         <v>-2197246.0400001034</v>
       </c>
       <c r="J33" s="5">
-        <f>I33/G33</f>
+        <f t="shared" si="3"/>
         <v>-3.8689222111488959E-2</v>
       </c>
       <c r="K33">
@@ -3112,15 +4111,15 @@
         <v>55386549.6599999</v>
       </c>
       <c r="N33">
-        <f>M33-L33</f>
+        <f t="shared" si="4"/>
         <v>-640550.34000010043</v>
       </c>
       <c r="O33" s="5">
-        <f>N33/L33</f>
+        <f t="shared" si="5"/>
         <v>-1.1432866237947358E-2</v>
       </c>
       <c r="P33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
     </row>
@@ -3135,11 +4134,11 @@
         <v>8499425.3399999905</v>
       </c>
       <c r="D34">
-        <f>C34-B34</f>
+        <f t="shared" ref="D34:D65" si="7">C34-B34</f>
         <v>-110074.66000000946</v>
       </c>
       <c r="E34" s="5">
-        <f>D34/B34</f>
+        <f t="shared" ref="E34:E65" si="8">D34/B34</f>
         <v>-1.2785255822058129E-2</v>
       </c>
       <c r="F34">
@@ -3152,11 +4151,11 @@
         <v>8599059.6199999992</v>
       </c>
       <c r="I34">
-        <f>H34-G34</f>
+        <f t="shared" ref="I34:I65" si="9">H34-G34</f>
         <v>-326440.38000000082</v>
       </c>
       <c r="J34" s="5">
-        <f>I34/G34</f>
+        <f t="shared" ref="J34:J65" si="10">I34/G34</f>
         <v>-3.6573903982970231E-2</v>
       </c>
       <c r="K34">
@@ -3169,15 +4168,15 @@
         <v>8735843.3100000005</v>
       </c>
       <c r="N34">
-        <f>M34-L34</f>
+        <f t="shared" ref="N34:N65" si="11">M34-L34</f>
         <v>-98056.689999999478</v>
       </c>
       <c r="O34" s="5">
-        <f>N34/L34</f>
+        <f t="shared" ref="O34:O65" si="12">N34/L34</f>
         <v>-1.1100045280114048E-2</v>
       </c>
       <c r="P34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
     </row>
@@ -3192,11 +4191,11 @@
         <v>920284264.73000002</v>
       </c>
       <c r="D35">
-        <f>C35-B35</f>
+        <f t="shared" si="7"/>
         <v>-7418835.2699990273</v>
       </c>
       <c r="E35" s="5">
-        <f>D35/B35</f>
+        <f t="shared" si="8"/>
         <v>-7.9969930789269058E-3</v>
       </c>
       <c r="F35">
@@ -3209,11 +4208,11 @@
         <v>977068513.48000002</v>
       </c>
       <c r="I35">
-        <f>H35-G35</f>
+        <f t="shared" si="9"/>
         <v>-2602486.5199999809</v>
       </c>
       <c r="J35" s="5">
-        <f>I35/G35</f>
+        <f t="shared" si="10"/>
         <v>-2.6564903115433454E-3</v>
       </c>
       <c r="K35">
@@ -3226,15 +4225,15 @@
         <v>984116289.40999901</v>
       </c>
       <c r="N35">
-        <f>M35-L35</f>
+        <f t="shared" si="11"/>
         <v>-5456610.5900000334</v>
       </c>
       <c r="O35" s="5">
-        <f>N35/L35</f>
+        <f t="shared" si="12"/>
         <v>-5.5141067323084929E-3</v>
       </c>
       <c r="P35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
@@ -3249,11 +4248,11 @@
         <v>479149.53</v>
       </c>
       <c r="D36">
-        <f>C36-B36</f>
+        <f t="shared" si="7"/>
         <v>-4950.4699999999721</v>
       </c>
       <c r="E36" s="5">
-        <f>D36/B36</f>
+        <f t="shared" si="8"/>
         <v>-1.0226130964676661E-2</v>
       </c>
       <c r="F36">
@@ -3266,11 +4265,11 @@
         <v>497194.20999999897</v>
       </c>
       <c r="I36">
-        <f>H36-G36</f>
+        <f t="shared" si="9"/>
         <v>-8005.7900000010268</v>
       </c>
       <c r="J36" s="5">
-        <f>I36/G36</f>
+        <f t="shared" si="10"/>
         <v>-1.5846773555029746E-2</v>
       </c>
       <c r="K36">
@@ -3283,15 +4282,15 @@
         <v>494775.1</v>
       </c>
       <c r="N36">
-        <f>M36-L36</f>
+        <f t="shared" si="11"/>
         <v>-1724.9000000000233</v>
       </c>
       <c r="O36" s="5">
-        <f>N36/L36</f>
+        <f t="shared" si="12"/>
         <v>-3.4741188318228064E-3</v>
       </c>
       <c r="P36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
     </row>
@@ -3306,11 +4305,11 @@
         <v>12030494.1</v>
       </c>
       <c r="D37">
-        <f>C37-B37</f>
+        <f t="shared" si="7"/>
         <v>-101705.90000000037</v>
       </c>
       <c r="E37" s="5">
-        <f>D37/B37</f>
+        <f t="shared" si="8"/>
         <v>-8.3831374359143746E-3</v>
       </c>
       <c r="F37">
@@ -3323,11 +4322,11 @@
         <v>12685514.279999901</v>
       </c>
       <c r="I37">
-        <f>H37-G37</f>
+        <f t="shared" si="9"/>
         <v>-50385.720000099391</v>
       </c>
       <c r="J37" s="5">
-        <f>I37/G37</f>
+        <f t="shared" si="10"/>
         <v>-3.9561962641116366E-3</v>
       </c>
       <c r="K37">
@@ -3340,15 +4339,15 @@
         <v>12826009.609999999</v>
       </c>
       <c r="N37">
-        <f>M37-L37</f>
+        <f t="shared" si="11"/>
         <v>-35290.390000000596</v>
       </c>
       <c r="O37" s="5">
-        <f>N37/L37</f>
+        <f t="shared" si="12"/>
         <v>-2.7439209100169185E-3</v>
       </c>
       <c r="P37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
     </row>
@@ -3363,11 +4362,11 @@
         <v>321214.59000000003</v>
       </c>
       <c r="D38">
-        <f>C38-B38</f>
+        <f t="shared" si="7"/>
         <v>-7585.4099999999744</v>
       </c>
       <c r="E38" s="5">
-        <f>D38/B38</f>
+        <f t="shared" si="8"/>
         <v>-2.3069981751824741E-2</v>
       </c>
       <c r="F38">
@@ -3380,11 +4379,11 @@
         <v>312433.70999999897</v>
       </c>
       <c r="I38">
-        <f>H38-G38</f>
+        <f t="shared" si="9"/>
         <v>-22366.290000001027</v>
       </c>
       <c r="J38" s="5">
-        <f>I38/G38</f>
+        <f t="shared" si="10"/>
         <v>-6.6804928315415249E-2</v>
       </c>
       <c r="K38">
@@ -3397,15 +4396,15 @@
         <v>322263.03999999998</v>
       </c>
       <c r="N38">
-        <f>M38-L38</f>
+        <f t="shared" si="11"/>
         <v>-436.96000000002095</v>
       </c>
       <c r="O38" s="5">
-        <f>N38/L38</f>
+        <f t="shared" si="12"/>
         <v>-1.3540749922529313E-3</v>
       </c>
       <c r="P38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
     </row>
@@ -3420,11 +4419,11 @@
         <v>70378426.719999999</v>
       </c>
       <c r="D39">
-        <f>C39-B39</f>
+        <f t="shared" si="7"/>
         <v>-12273.280000001192</v>
       </c>
       <c r="E39" s="5">
-        <f>D39/B39</f>
+        <f t="shared" si="8"/>
         <v>-1.7435939690898361E-4</v>
       </c>
       <c r="F39">
@@ -3437,11 +4436,11 @@
         <v>73442541.659999996</v>
       </c>
       <c r="I39">
-        <f>H39-G39</f>
+        <f t="shared" si="9"/>
         <v>-24458.340000003576</v>
       </c>
       <c r="J39" s="5">
-        <f>I39/G39</f>
+        <f t="shared" si="10"/>
         <v>-3.3291600310348285E-4</v>
       </c>
       <c r="K39">
@@ -3454,15 +4453,15 @@
         <v>75050829.179999903</v>
       </c>
       <c r="N39">
-        <f>M39-L39</f>
+        <f t="shared" si="11"/>
         <v>-21970.820000097156</v>
       </c>
       <c r="O39" s="5">
-        <f>N39/L39</f>
+        <f t="shared" si="12"/>
         <v>-2.9266019117572752E-4</v>
       </c>
       <c r="P39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
     </row>
@@ -3477,11 +4476,11 @@
         <v>385908.52</v>
       </c>
       <c r="D40">
-        <f>C40-B40</f>
+        <f t="shared" si="7"/>
         <v>-23391.479999999981</v>
       </c>
       <c r="E40" s="5">
-        <f>D40/B40</f>
+        <f t="shared" si="8"/>
         <v>-5.7149963352064452E-2</v>
       </c>
       <c r="F40">
@@ -3494,11 +4493,11 @@
         <v>427758.64</v>
       </c>
       <c r="I40">
-        <f>H40-G40</f>
+        <f t="shared" si="9"/>
         <v>-741.35999999998603</v>
       </c>
       <c r="J40" s="5">
-        <f>I40/G40</f>
+        <f t="shared" si="10"/>
         <v>-1.7301283547257551E-3</v>
       </c>
       <c r="K40">
@@ -3511,15 +4510,15 @@
         <v>445114.28999999899</v>
       </c>
       <c r="N40">
-        <f>M40-L40</f>
+        <f t="shared" si="11"/>
         <v>-85.710000001010485</v>
       </c>
       <c r="O40" s="5">
-        <f>N40/L40</f>
+        <f t="shared" si="12"/>
         <v>-1.925202156356929E-4</v>
       </c>
       <c r="P40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
     </row>
@@ -3534,11 +4533,11 @@
         <v>838669.82</v>
       </c>
       <c r="D41">
-        <f>C41-B41</f>
+        <f t="shared" si="7"/>
         <v>-16630.180000000051</v>
       </c>
       <c r="E41" s="5">
-        <f>D41/B41</f>
+        <f t="shared" si="8"/>
         <v>-1.9443680579913542E-2</v>
       </c>
       <c r="F41">
@@ -3551,11 +4550,11 @@
         <v>753451.96</v>
       </c>
       <c r="I41">
-        <f>H41-G41</f>
+        <f t="shared" si="9"/>
         <v>-39348.040000000037</v>
       </c>
       <c r="J41" s="5">
-        <f>I41/G41</f>
+        <f t="shared" si="10"/>
         <v>-4.9631735620585316E-2</v>
       </c>
       <c r="K41">
@@ -3568,15 +4567,15 @@
         <v>777663.26</v>
       </c>
       <c r="N41">
-        <f>M41-L41</f>
+        <f t="shared" si="11"/>
         <v>-136.73999999999069</v>
       </c>
       <c r="O41" s="5">
-        <f>N41/L41</f>
+        <f t="shared" si="12"/>
         <v>-1.7580354847003174E-4</v>
       </c>
       <c r="P41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
@@ -3591,11 +4590,11 @@
         <v>904969.19</v>
       </c>
       <c r="D42">
-        <f>C42-B42</f>
+        <f t="shared" si="7"/>
         <v>-12230.810000000056</v>
       </c>
       <c r="E42" s="5">
-        <f>D42/B42</f>
+        <f t="shared" si="8"/>
         <v>-1.3334943305713101E-2</v>
       </c>
       <c r="F42">
@@ -3608,11 +4607,11 @@
         <v>1067214.42</v>
       </c>
       <c r="I42">
-        <f>H42-G42</f>
+        <f t="shared" si="9"/>
         <v>-45485.580000000075</v>
       </c>
       <c r="J42" s="5">
-        <f>I42/G42</f>
+        <f t="shared" si="10"/>
         <v>-4.087856565111897E-2</v>
       </c>
       <c r="K42">
@@ -3625,15 +4624,15 @@
         <v>1112527.1200000001</v>
       </c>
       <c r="N42">
-        <f>M42-L42</f>
+        <f t="shared" si="11"/>
         <v>-72.879999999888241</v>
       </c>
       <c r="O42" s="5">
-        <f>N42/L42</f>
+        <f t="shared" si="12"/>
         <v>-6.5504224339284781E-5</v>
       </c>
       <c r="P42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
     </row>
@@ -3648,11 +4647,11 @@
         <v>11412339.8799999</v>
       </c>
       <c r="D43">
-        <f>C43-B43</f>
+        <f t="shared" si="7"/>
         <v>-153660.12000009976</v>
       </c>
       <c r="E43" s="5">
-        <f>D43/B43</f>
+        <f t="shared" si="8"/>
         <v>-1.3285502334437123E-2</v>
       </c>
       <c r="F43">
@@ -3665,11 +4664,11 @@
         <v>11791977.9699999</v>
       </c>
       <c r="I43">
-        <f>H43-G43</f>
+        <f t="shared" si="9"/>
         <v>-188722.03000009991</v>
       </c>
       <c r="J43" s="5">
-        <f>I43/G43</f>
+        <f t="shared" si="10"/>
         <v>-1.5752170574348738E-2</v>
       </c>
       <c r="K43">
@@ -3682,15 +4681,15 @@
         <v>11934454.77</v>
       </c>
       <c r="N43">
-        <f>M43-L43</f>
+        <f t="shared" si="11"/>
         <v>-745.23000000044703</v>
       </c>
       <c r="O43" s="5">
-        <f>N43/L43</f>
+        <f t="shared" si="12"/>
         <v>-6.2439674240938325E-5</v>
       </c>
       <c r="P43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
     </row>
@@ -3705,11 +4704,11 @@
         <v>6522480.4599999897</v>
       </c>
       <c r="D44">
-        <f>C44-B44</f>
+        <f t="shared" si="7"/>
         <v>-78219.540000010282</v>
       </c>
       <c r="E44" s="5">
-        <f>D44/B44</f>
+        <f t="shared" si="8"/>
         <v>-1.1850188616360429E-2</v>
       </c>
       <c r="F44">
@@ -3722,11 +4721,11 @@
         <v>7350464.0800000001</v>
       </c>
       <c r="I44">
-        <f>H44-G44</f>
+        <f t="shared" si="9"/>
         <v>-2035.9199999999255</v>
       </c>
       <c r="J44" s="5">
-        <f>I44/G44</f>
+        <f t="shared" si="10"/>
         <v>-2.769017341040361E-4</v>
       </c>
       <c r="K44">
@@ -3739,15 +4738,15 @@
         <v>7397093</v>
       </c>
       <c r="N44">
-        <f>M44-L44</f>
+        <f t="shared" si="11"/>
         <v>-107</v>
       </c>
       <c r="O44" s="5">
-        <f>N44/L44</f>
+        <f t="shared" si="12"/>
         <v>-1.4464932677229222E-5</v>
       </c>
       <c r="P44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
     </row>
@@ -3762,11 +4761,11 @@
         <v>2523884.71</v>
       </c>
       <c r="D45">
-        <f>C45-B45</f>
+        <f t="shared" si="7"/>
         <v>-37915.290000000037</v>
       </c>
       <c r="E45" s="5">
-        <f>D45/B45</f>
+        <f t="shared" si="8"/>
         <v>-1.4800253727847622E-2</v>
       </c>
       <c r="F45">
@@ -3779,11 +4778,11 @@
         <v>2665264.4399999902</v>
       </c>
       <c r="I45">
-        <f>H45-G45</f>
+        <f t="shared" si="9"/>
         <v>-114235.56000000983</v>
       </c>
       <c r="J45" s="5">
-        <f>I45/G45</f>
+        <f t="shared" si="10"/>
         <v>-4.1099320021590155E-2</v>
       </c>
       <c r="K45">
@@ -3796,15 +4795,15 @@
         <v>2889864.67</v>
       </c>
       <c r="N45">
-        <f>M45-L45</f>
+        <f t="shared" si="11"/>
         <v>-35.330000000074506</v>
       </c>
       <c r="O45" s="5">
-        <f>N45/L45</f>
+        <f t="shared" si="12"/>
         <v>-1.2225336516860273E-5</v>
       </c>
       <c r="P45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
     </row>
@@ -3819,11 +4818,11 @@
         <v>29789104.379999999</v>
       </c>
       <c r="D46">
-        <f>C46-B46</f>
+        <f t="shared" si="7"/>
         <v>-294095.62000000104</v>
       </c>
       <c r="E46" s="5">
-        <f>D46/B46</f>
+        <f t="shared" si="8"/>
         <v>-9.7760750186150751E-3</v>
       </c>
       <c r="F46">
@@ -3836,11 +4835,11 @@
         <v>30793711.48</v>
       </c>
       <c r="I46">
-        <f>H46-G46</f>
+        <f t="shared" si="9"/>
         <v>-246988.51999999955</v>
       </c>
       <c r="J46" s="5">
-        <f>I46/G46</f>
+        <f t="shared" si="10"/>
         <v>-7.9569249404813532E-3</v>
       </c>
       <c r="K46">
@@ -3853,15 +4852,15 @@
         <v>31282141.25</v>
       </c>
       <c r="N46">
-        <f>M46-L46</f>
+        <f t="shared" si="11"/>
         <v>-58.75</v>
       </c>
       <c r="O46" s="5">
-        <f>N46/L46</f>
+        <f t="shared" si="12"/>
         <v>-1.8780648419868168E-6</v>
       </c>
       <c r="P46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
     </row>
@@ -3876,11 +4875,11 @@
         <v>124384360.159999</v>
       </c>
       <c r="D47">
-        <f>C47-B47</f>
+        <f t="shared" si="7"/>
         <v>-1539.8400010019541</v>
       </c>
       <c r="E47" s="5">
-        <f>D47/B47</f>
+        <f t="shared" si="8"/>
         <v>-1.2379538203300809E-5</v>
       </c>
       <c r="F47">
@@ -3893,11 +4892,11 @@
         <v>131839624.37</v>
       </c>
       <c r="I47">
-        <f>H47-G47</f>
+        <f t="shared" si="9"/>
         <v>-9775.6299999952316</v>
       </c>
       <c r="J47" s="5">
-        <f>I47/G47</f>
+        <f t="shared" si="10"/>
         <v>-7.4142392760188761E-5</v>
       </c>
       <c r="K47">
@@ -3910,15 +4909,15 @@
         <v>130621283.53999899</v>
       </c>
       <c r="N47">
-        <f>M47-L47</f>
+        <f t="shared" si="11"/>
         <v>-116.46000100672245</v>
       </c>
       <c r="O47" s="5">
-        <f>N47/L47</f>
+        <f t="shared" si="12"/>
         <v>-8.9158438821450736E-7</v>
       </c>
       <c r="P47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
     </row>
@@ -3933,11 +4932,11 @@
         <v>188551675.67999899</v>
       </c>
       <c r="D48">
-        <f>C48-B48</f>
+        <f t="shared" si="7"/>
         <v>-41624.320001006126</v>
       </c>
       <c r="E48" s="5">
-        <f>D48/B48</f>
+        <f t="shared" si="8"/>
         <v>-2.2070943135841053E-4</v>
       </c>
       <c r="F48">
@@ -3950,11 +4949,11 @@
         <v>196755033.31</v>
       </c>
       <c r="I48">
-        <f>H48-G48</f>
+        <f t="shared" si="9"/>
         <v>-2375266.6899999976</v>
       </c>
       <c r="J48" s="5">
-        <f>I48/G48</f>
+        <f t="shared" si="10"/>
         <v>-1.1928203241796942E-2</v>
       </c>
       <c r="K48">
@@ -3967,15 +4966,15 @@
         <v>199954563.74999899</v>
       </c>
       <c r="N48">
-        <f>M48-L48</f>
+        <f t="shared" si="11"/>
         <v>-36.250001013278961</v>
       </c>
       <c r="O48" s="5">
-        <f>N48/L48</f>
+        <f t="shared" si="12"/>
         <v>-1.8129115815929696E-7</v>
       </c>
       <c r="P48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
     </row>
@@ -3990,11 +4989,11 @@
         <v>832600</v>
       </c>
       <c r="D49">
-        <f>C49-B49</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E49" s="5">
-        <f>D49/B49</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F49">
@@ -4007,11 +5006,11 @@
         <v>859100</v>
       </c>
       <c r="I49">
-        <f>H49-G49</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J49" s="5">
-        <f>I49/G49</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K49">
@@ -4024,15 +5023,15 @@
         <v>843200</v>
       </c>
       <c r="N49">
-        <f>M49-L49</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O49" s="5">
-        <f>N49/L49</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
     </row>
@@ -4047,11 +5046,11 @@
         <v>90499.43</v>
       </c>
       <c r="D50">
-        <f>C50-B50</f>
+        <f t="shared" si="7"/>
         <v>-1700.570000000007</v>
       </c>
       <c r="E50" s="5">
-        <f>D50/B50</f>
+        <f t="shared" si="8"/>
         <v>-1.8444360086767971E-2</v>
       </c>
       <c r="F50">
@@ -4064,11 +5063,11 @@
         <v>95466.880000000005</v>
       </c>
       <c r="I50">
-        <f>H50-G50</f>
+        <f t="shared" si="9"/>
         <v>-7133.1199999999953</v>
       </c>
       <c r="J50" s="5">
-        <f>I50/G50</f>
+        <f t="shared" si="10"/>
         <v>-6.9523586744639335E-2</v>
       </c>
       <c r="K50">
@@ -4081,15 +5080,15 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <f>M50-L50</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O50" s="5" t="e">
-        <f>N50/L50</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P50" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4104,11 +5103,11 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <f>C51-B51</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E51" s="5" t="e">
-        <f>D51/B51</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F51" t="e">
@@ -4121,11 +5120,11 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <f>H51-G51</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J51" s="5" t="e">
-        <f>I51/G51</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K51" t="e">
@@ -4138,15 +5137,15 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <f>M51-L51</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O51" s="5" t="e">
-        <f>N51/L51</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P51" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4161,11 +5160,11 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <f>C52-B52</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E52" s="5" t="e">
-        <f>D52/B52</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F52" t="e">
@@ -4178,11 +5177,11 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <f>H52-G52</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J52" s="5" t="e">
-        <f>I52/G52</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K52" t="e">
@@ -4195,15 +5194,15 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <f>M52-L52</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O52" s="5" t="e">
-        <f>N52/L52</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P52" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4231,15 +5230,15 @@
         <v>24</v>
       </c>
       <c r="B56">
-        <f>VLOOKUP(A56,A$1:D$52,4,FALSE)</f>
+        <f>VLOOKUP($A56,$A$1:$P$52,MATCH(B$55,$A$1:$P$1),FALSE)</f>
         <v>-36209.630000000005</v>
       </c>
       <c r="C56">
-        <f>VLOOKUP(A56,A$1:I$52,9,FALSE)</f>
+        <f t="shared" ref="C56:D56" si="13">VLOOKUP($A56,$A$1:$P$52,MATCH(C$55,$A$1:$P$1),FALSE)</f>
         <v>-27292.159999999974</v>
       </c>
       <c r="D56">
-        <f>VLOOKUP(A56,A$1:N$52,14,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>-9181.0800000000163</v>
       </c>
     </row>
@@ -4248,15 +5247,15 @@
         <v>25</v>
       </c>
       <c r="B57">
-        <f t="shared" ref="B57:B61" si="1">VLOOKUP(A57,A$1:D$52,4,FALSE)</f>
+        <f t="shared" ref="B57:D61" si="14">VLOOKUP($A57,$A$1:$P$52,MATCH(B$55,$A$1:$P$1),FALSE)</f>
         <v>0</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:C61" si="2">VLOOKUP(A57,A$1:I$52,9,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:D61" si="3">VLOOKUP(A57,A$1:N$52,14,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>-311228.08999999997</v>
       </c>
     </row>
@@ -4265,15 +5264,15 @@
         <v>32</v>
       </c>
       <c r="B58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>-149396.10000000987</v>
       </c>
       <c r="C58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>-189254.06000000006</v>
       </c>
       <c r="D58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>-374962.91000000015</v>
       </c>
     </row>
@@ -4282,15 +5281,15 @@
         <v>38</v>
       </c>
       <c r="B59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>-12230.810000000056</v>
       </c>
       <c r="C59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>-45485.580000000075</v>
       </c>
       <c r="D59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>-72.879999999888241</v>
       </c>
     </row>
@@ -4299,15 +5298,15 @@
         <v>39</v>
       </c>
       <c r="B60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>-4950.4699999999721</v>
       </c>
       <c r="C60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>-8005.7900000010268</v>
       </c>
       <c r="D60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>-1724.9000000000233</v>
       </c>
     </row>
@@ -4316,15 +5315,15 @@
         <v>55</v>
       </c>
       <c r="B61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>-184239.79000001028</v>
       </c>
       <c r="C61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>-133456.33000001032</v>
       </c>
       <c r="D61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>-82077.349999999627</v>
       </c>
     </row>
@@ -4369,15 +5368,15 @@
         <v>25</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B70" si="4">_xlfn.XLOOKUP(A66,A$2:A$52,D$2:D$52)</f>
+        <f t="shared" ref="B66:B70" si="15">_xlfn.XLOOKUP(A66,A$2:A$52,D$2:D$52)</f>
         <v>0</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C70" si="5">_xlfn.XLOOKUP(A66,A$1:A$52,I$1:I$52)</f>
+        <f t="shared" ref="C66:C70" si="16">_xlfn.XLOOKUP(A66,A$1:A$52,I$1:I$52)</f>
         <v>0</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D70" si="6">_xlfn.XLOOKUP(A66,A$1:A$52,N$1:N$52)</f>
+        <f t="shared" ref="D66:D70" si="17">_xlfn.XLOOKUP(A66,A$1:A$52,N$1:N$52)</f>
         <v>-311228.08999999997</v>
       </c>
     </row>
@@ -4386,15 +5385,15 @@
         <v>32</v>
       </c>
       <c r="B67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>-149396.10000000987</v>
       </c>
       <c r="C67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>-189254.06000000006</v>
       </c>
       <c r="D67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>-374962.91000000015</v>
       </c>
     </row>
@@ -4403,15 +5402,15 @@
         <v>38</v>
       </c>
       <c r="B68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>-12230.810000000056</v>
       </c>
       <c r="C68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>-45485.580000000075</v>
       </c>
       <c r="D68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>-72.879999999888241</v>
       </c>
     </row>
@@ -4420,15 +5419,15 @@
         <v>39</v>
       </c>
       <c r="B69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>-4950.4699999999721</v>
       </c>
       <c r="C69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>-8005.7900000010268</v>
       </c>
       <c r="D69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>-1724.9000000000233</v>
       </c>
     </row>
@@ -4437,15 +5436,15 @@
         <v>55</v>
       </c>
       <c r="B70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>-184239.79000001028</v>
       </c>
       <c r="C70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>-133456.33000001032</v>
       </c>
       <c r="D70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>-82077.349999999627</v>
       </c>
     </row>
@@ -4472,9 +5471,9 @@
       <c r="A74" t="s">
         <v>24</v>
       </c>
-      <c r="B74">
-        <f>INDEX(D$2:D$52,MATCH(A74,A$2:A$52,FALSE))</f>
-        <v>-36209.630000000005</v>
+      <c r="B74" t="e">
+        <f>INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52),MATCH(B$73,$A$1:$P$1))</f>
+        <v>#N/A</v>
       </c>
       <c r="C74">
         <f>INDEX(I$1:I$52,MATCH(A74,A$1:A$52,FALSE))</f>
@@ -4490,15 +5489,15 @@
         <v>25</v>
       </c>
       <c r="B75" t="e">
-        <f t="shared" ref="B75:B79" si="7">INDEX(D3:D53,MATCH(A75,A3:A53,FALSE))</f>
+        <f t="shared" ref="B75:B79" si="18">INDEX(D3:D53,MATCH(A75,A3:A53,FALSE))</f>
         <v>#N/A</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:C79" si="8">INDEX(I$1:I$52,MATCH(A75,A$1:A$52,FALSE))</f>
+        <f t="shared" ref="C75:C79" si="19">INDEX(I$1:I$52,MATCH(A75,A$1:A$52,FALSE))</f>
         <v>0</v>
       </c>
       <c r="D75">
-        <f t="shared" ref="D75:D79" si="9">INDEX(N$1:N$52,MATCH(A75,A$1:A$52,FALSE))</f>
+        <f t="shared" ref="D75:D79" si="20">INDEX(N$1:N$52,MATCH(A75,A$1:A$52,FALSE))</f>
         <v>-311228.08999999997</v>
       </c>
     </row>
@@ -4507,15 +5506,15 @@
         <v>32</v>
       </c>
       <c r="B76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>-149396.10000000987</v>
       </c>
       <c r="C76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>-189254.06000000006</v>
       </c>
       <c r="D76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>-374962.91000000015</v>
       </c>
     </row>
@@ -4524,15 +5523,15 @@
         <v>38</v>
       </c>
       <c r="B77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>-12230.810000000056</v>
       </c>
       <c r="C77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>-45485.580000000075</v>
       </c>
       <c r="D77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>-72.879999999888241</v>
       </c>
     </row>
@@ -4541,15 +5540,15 @@
         <v>39</v>
       </c>
       <c r="B78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>-4950.4699999999721</v>
       </c>
       <c r="C78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>-8005.7900000010268</v>
       </c>
       <c r="D78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>-1724.9000000000233</v>
       </c>
     </row>
@@ -4558,15 +5557,15 @@
         <v>55</v>
       </c>
       <c r="B79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>-184239.79000001028</v>
       </c>
       <c r="C79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>-133456.33000001032</v>
       </c>
       <c r="D79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>-82077.349999999627</v>
       </c>
     </row>
@@ -4580,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -4597,11 +5596,11 @@
       </c>
       <c r="B84" s="6">
         <f>INDEX(B$2:B$52,MATCH($B$82,$A$2:$A$52,0))</f>
-        <v>798200</v>
+        <v>1552100</v>
       </c>
       <c r="C84" s="6">
         <f>INDEX(C$2:C$52,MATCH($B$82,$A$2:$A$52,0))</f>
-        <v>735423.27999999898</v>
+        <v>1315623.30999999</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -4610,11 +5609,11 @@
       </c>
       <c r="B85" s="6">
         <f>INDEX(G$2:G$52,MATCH($B$82,$A$2:$A$52,0))</f>
-        <v>898700</v>
+        <v>1590700</v>
       </c>
       <c r="C85" s="6">
         <f>INDEX(H$2:H$52,MATCH($B$82,$A$2:$A$52,0))</f>
-        <v>740966.94999999902</v>
+        <v>1383905.98999999</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -4623,11 +5622,11 @@
       </c>
       <c r="B86" s="6">
         <f>INDEX(L$2:L$52,MATCH($B$82,$A$2:$A$52,0))</f>
-        <v>878300</v>
+        <v>1579300</v>
       </c>
       <c r="C86" s="6">
         <f>INDEX(M$2:M$52,MATCH($B$82,$A$2:$A$52,0))</f>
-        <v>777215.28999999899</v>
+        <v>1337735.3199999901</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -4675,6 +5674,10 @@
       <c r="A91" t="s">
         <v>73</v>
       </c>
+      <c r="B91" t="str">
+        <f>_xlfn.XLOOKUP($B$89,F$2:F$52,A$2:A$52)</f>
+        <v>Clerk and Master - Chancery</v>
+      </c>
       <c r="C91" s="5"/>
       <c r="E91" s="5"/>
       <c r="G91" s="5"/>
@@ -4683,6 +5686,10 @@
       <c r="A92" t="s">
         <v>74</v>
       </c>
+      <c r="B92">
+        <f>MATCH(A92,1:1)</f>
+        <v>6</v>
+      </c>
       <c r="C92" s="5"/>
       <c r="E92" s="5"/>
       <c r="G92" s="5"/>
@@ -4690,6 +5697,10 @@
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>75</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" ref="B93" si="21">_xlfn.XLOOKUP($B$89,F$2:F$52,A$2:A$52)</f>
+        <v>Clerk and Master - Chancery</v>
       </c>
       <c r="C93" s="5"/>
       <c r="E93" s="5"/>
@@ -4774,8 +5785,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
